--- a/ICINoHIStreams.xlsx
+++ b/ICINoHIStreams.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Overall" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Overall1" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Overall2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Overall3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="0" fullCalcOnLoad="1"/>
@@ -44729,41 +44730,6 @@
           <t>help</t>
         </is>
       </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>help</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -52370,4 +52336,8043 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:CD36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" style="6" width="22.6640625"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="6" width="10"/>
+    <col bestFit="1" customWidth="1" max="12" min="3" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="14" min="13" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="16" min="15" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="20" min="17" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="21" min="21" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="23" min="22" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="24" min="24" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="34" min="25" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="35" min="35" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="36" min="36" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="37" min="37" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="40" min="38" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="41" min="41" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="42" min="42" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="46" min="43" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="47" min="47" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="53" min="48" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="54" min="54" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="56" min="55" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="57" min="57" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="58" min="58" style="6" width="12.1640625"/>
+    <col bestFit="1" customWidth="1" max="69" min="59" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="71" min="71" style="6" width="13.1640625"/>
+    <col bestFit="1" customWidth="1" max="72" min="72" style="6" width="11"/>
+    <col bestFit="1" customWidth="1" max="73" min="73" style="6" width="11.6640625"/>
+    <col bestFit="1" customWidth="1" max="74" min="74" style="6" width="11"/>
+    <col bestFit="1" customWidth="1" max="75" min="75" style="6" width="11.6640625"/>
+    <col bestFit="1" customWidth="1" max="76" min="76" style="6" width="12"/>
+    <col bestFit="1" customWidth="1" max="77" min="77" style="6" width="6.5"/>
+    <col bestFit="1" customWidth="1" max="78" min="78" style="6" width="11.6640625"/>
+    <col bestFit="1" customWidth="1" max="80" min="79" style="6" width="11"/>
+    <col bestFit="1" customWidth="1" max="82" min="81" style="6" width="11.6640625"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ICI Methanol Streams</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AT1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AU1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AX1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AY1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="AZ1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="BA1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BB1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="BC1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BD1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="BE1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="BF1" t="inlineStr">
+        <is>
+          <t>Out</t>
+        </is>
+      </c>
+      <c r="BG1" t="inlineStr">
+        <is>
+          <t>In</t>
+        </is>
+      </c>
+      <c r="BH1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BI1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BJ1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BK1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BL1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BM1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BN1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BO1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BP1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BQ1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BS1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BT1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BU1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BV1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BW1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BX1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="BZ1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+      <c r="CA1" t="inlineStr">
+        <is>
+          <t>help</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Stream Name</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>COOL1</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>COOL2</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>CW-203A</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>CW-203B</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>CW-207A</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>CW-207B</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>CW-210A</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>CW-210B</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>CW-220A</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>CW-220B</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>FEED</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>HW-206A</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>HW-206B</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>MEOH</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>MU-B</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>MU-C</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>MU-D</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>S10</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>S18</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>S20</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>S20A</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>S21</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>S22</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>S22A</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>S23</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>S23A</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>S24</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>S26</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>S27</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>S27B</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>S27D</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>S28</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>S29</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>S30</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>S31</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>S32</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>S32B</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>S32C</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>S33</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>S34</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>S35</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>S35B</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>S35C</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>S35D</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>S36</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>S37</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>S37A</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>S38</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>S38B</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
+        <is>
+          <t>S39</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>S40</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>S41</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>S44</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>S45</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>S48</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>STE-3</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>STE-BUY</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
+        <is>
+          <t>TO-BEDS</t>
+        </is>
+      </c>
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>TO-R1</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>TO-R201A</t>
+        </is>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>TO-R201B</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
+        <is>
+          <t>TO-R201C</t>
+        </is>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
+        <is>
+          <t>TO-R201D</t>
+        </is>
+      </c>
+      <c r="BN2" s="1" t="inlineStr">
+        <is>
+          <t>X-R201A</t>
+        </is>
+      </c>
+      <c r="BO2" s="1" t="inlineStr">
+        <is>
+          <t>X-R201B</t>
+        </is>
+      </c>
+      <c r="BP2" s="1" t="inlineStr">
+        <is>
+          <t>X-R201C</t>
+        </is>
+      </c>
+      <c r="BQ2" s="1" t="inlineStr">
+        <is>
+          <t>X-R201D</t>
+        </is>
+      </c>
+      <c r="BS2" s="1" t="inlineStr">
+        <is>
+          <t>Stream Name</t>
+        </is>
+      </c>
+      <c r="BT2" s="1" t="inlineStr">
+        <is>
+          <t>Q-301C</t>
+        </is>
+      </c>
+      <c r="BU2" s="1" t="inlineStr">
+        <is>
+          <t>Q-301R</t>
+        </is>
+      </c>
+      <c r="BV2" s="1" t="inlineStr">
+        <is>
+          <t>Q-302C</t>
+        </is>
+      </c>
+      <c r="BW2" s="1" t="inlineStr">
+        <is>
+          <t>Q-302R</t>
+        </is>
+      </c>
+      <c r="BX2" s="1" t="inlineStr">
+        <is>
+          <t>Q-302R3</t>
+        </is>
+      </c>
+      <c r="BY2" s="1" t="inlineStr">
+        <is>
+          <t>Q301B</t>
+        </is>
+      </c>
+      <c r="BZ2" s="1" t="inlineStr">
+        <is>
+          <t>QE202A</t>
+        </is>
+      </c>
+      <c r="CA2" s="1" t="inlineStr">
+        <is>
+          <t>QOUT301C</t>
+        </is>
+      </c>
+      <c r="CB2" s="1" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="CC2" s="1" t="inlineStr">
+        <is>
+          <t>S5</t>
+        </is>
+      </c>
+      <c r="CD2" s="1" t="inlineStr">
+        <is>
+          <t>S6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n"/>
+      <c r="C3" s="1" t="n"/>
+      <c r="D3" s="1" t="n"/>
+      <c r="E3" s="1" t="n"/>
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n"/>
+      <c r="I3" s="1" t="n"/>
+      <c r="J3" s="1" t="n"/>
+      <c r="K3" s="1" t="n"/>
+      <c r="L3" s="1" t="n"/>
+      <c r="M3" s="1" t="n"/>
+      <c r="N3" s="1" t="n"/>
+      <c r="O3" s="1" t="n"/>
+      <c r="P3" s="1" t="n"/>
+      <c r="Q3" s="1" t="n"/>
+      <c r="R3" s="1" t="n"/>
+      <c r="S3" s="1" t="n"/>
+      <c r="T3" s="1" t="n"/>
+      <c r="U3" s="1" t="n"/>
+      <c r="V3" s="1" t="n"/>
+      <c r="W3" s="1" t="n"/>
+      <c r="X3" s="1" t="n"/>
+      <c r="Y3" s="1" t="n"/>
+      <c r="Z3" s="1" t="n"/>
+      <c r="AA3" s="1" t="n"/>
+      <c r="AB3" s="1" t="n"/>
+      <c r="AC3" s="1" t="n"/>
+      <c r="AD3" s="1" t="n"/>
+      <c r="AE3" s="1" t="n"/>
+      <c r="AF3" s="1" t="n"/>
+      <c r="AG3" s="1" t="n"/>
+      <c r="AH3" s="1" t="n"/>
+      <c r="AI3" s="1" t="n"/>
+      <c r="AJ3" s="1" t="n"/>
+      <c r="AK3" s="1" t="n"/>
+      <c r="AL3" s="1" t="n"/>
+      <c r="AM3" s="1" t="n"/>
+      <c r="AN3" s="1" t="n"/>
+      <c r="AO3" s="1" t="n"/>
+      <c r="AP3" s="1" t="n"/>
+      <c r="AQ3" s="1" t="n"/>
+      <c r="AR3" s="1" t="n"/>
+      <c r="AS3" s="1" t="n"/>
+      <c r="AT3" s="1" t="n"/>
+      <c r="AU3" s="1" t="n"/>
+      <c r="AV3" s="1" t="n"/>
+      <c r="AW3" s="1" t="n"/>
+      <c r="AX3" s="1" t="n"/>
+      <c r="AY3" s="1" t="n"/>
+      <c r="AZ3" s="1" t="n"/>
+      <c r="BA3" s="1" t="n"/>
+      <c r="BB3" s="1" t="n"/>
+      <c r="BC3" s="1" t="n"/>
+      <c r="BD3" s="1" t="n"/>
+      <c r="BE3" s="1" t="n"/>
+      <c r="BF3" s="1" t="n"/>
+      <c r="BG3" s="1" t="n"/>
+      <c r="BH3" s="1" t="n"/>
+      <c r="BI3" s="1" t="n"/>
+      <c r="BJ3" s="1" t="n"/>
+      <c r="BK3" s="1" t="n"/>
+      <c r="BL3" s="1" t="n"/>
+      <c r="BM3" s="1" t="n"/>
+      <c r="BN3" s="1" t="n"/>
+      <c r="BO3" s="1" t="n"/>
+      <c r="BP3" s="1" t="n"/>
+      <c r="BQ3" s="1" t="n"/>
+      <c r="BS3" s="1" t="inlineStr">
+        <is>
+          <t>QCALC MW</t>
+        </is>
+      </c>
+      <c r="BT3" s="1" t="n">
+        <v>35.2598139</v>
+      </c>
+      <c r="BU3" s="1" t="n">
+        <v>-52.7527926</v>
+      </c>
+      <c r="BV3" s="1" t="n">
+        <v>349.760625</v>
+      </c>
+      <c r="BW3" s="1" t="n">
+        <v>-348.613327</v>
+      </c>
+      <c r="BX3" s="1" t="n">
+        <v>0.996903221</v>
+      </c>
+      <c r="BY3" s="1" t="n">
+        <v>-10</v>
+      </c>
+      <c r="BZ3" s="1" t="n">
+        <v>-89.3219668</v>
+      </c>
+      <c r="CA3" s="1" t="n">
+        <v>35.2598139</v>
+      </c>
+      <c r="CB3" s="1" t="n">
+        <v>349.760625</v>
+      </c>
+      <c r="CC3" s="1" t="n">
+        <v>-348.613327</v>
+      </c>
+      <c r="CD3" s="1" t="n">
+        <v>-52.7527926</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>From</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n"/>
+      <c r="C4" s="1" t="n"/>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="E4" s="1" t="n"/>
+      <c r="F4" s="1" t="inlineStr">
+        <is>
+          <t>HEX203</t>
+        </is>
+      </c>
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="inlineStr">
+        <is>
+          <t>HEX207</t>
+        </is>
+      </c>
+      <c r="I4" s="1" t="n"/>
+      <c r="J4" s="1" t="inlineStr">
+        <is>
+          <t>HEX210</t>
+        </is>
+      </c>
+      <c r="K4" s="1" t="n"/>
+      <c r="L4" s="1" t="inlineStr">
+        <is>
+          <t>HEX220</t>
+        </is>
+      </c>
+      <c r="M4" s="1" t="n"/>
+      <c r="N4" s="1" t="n"/>
+      <c r="O4" s="1" t="inlineStr">
+        <is>
+          <t>HEX206</t>
+        </is>
+      </c>
+      <c r="P4" s="1" t="inlineStr">
+        <is>
+          <t>E301-H</t>
+        </is>
+      </c>
+      <c r="Q4" s="1" t="inlineStr">
+        <is>
+          <t>SPL-2</t>
+        </is>
+      </c>
+      <c r="R4" s="1" t="inlineStr">
+        <is>
+          <t>SPL-2</t>
+        </is>
+      </c>
+      <c r="S4" s="1" t="inlineStr">
+        <is>
+          <t>SPL-2</t>
+        </is>
+      </c>
+      <c r="T4" s="1" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="U4" s="1" t="inlineStr">
+        <is>
+          <t>V201</t>
+        </is>
+      </c>
+      <c r="V4" s="1" t="inlineStr">
+        <is>
+          <t>K201-S1</t>
+        </is>
+      </c>
+      <c r="W4" s="1" t="inlineStr">
+        <is>
+          <t>HEX203</t>
+        </is>
+      </c>
+      <c r="X4" s="1" t="inlineStr">
+        <is>
+          <t>V208</t>
+        </is>
+      </c>
+      <c r="Y4" s="1" t="inlineStr">
+        <is>
+          <t>K201-S2</t>
+        </is>
+      </c>
+      <c r="Z4" s="1" t="inlineStr">
+        <is>
+          <t>V208</t>
+        </is>
+      </c>
+      <c r="AA4" s="1" t="inlineStr">
+        <is>
+          <t>K202</t>
+        </is>
+      </c>
+      <c r="AB4" s="1" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AC4" s="1" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="AD4" s="1" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AE4" s="1" t="inlineStr">
+        <is>
+          <t>HEX210</t>
+        </is>
+      </c>
+      <c r="AF4" s="1" t="inlineStr">
+        <is>
+          <t>E202-H</t>
+        </is>
+      </c>
+      <c r="AG4" s="1" t="inlineStr">
+        <is>
+          <t>HEX207</t>
+        </is>
+      </c>
+      <c r="AH4" s="1" t="inlineStr">
+        <is>
+          <t>V201</t>
+        </is>
+      </c>
+      <c r="AI4" s="1" t="inlineStr">
+        <is>
+          <t>K203</t>
+        </is>
+      </c>
+      <c r="AJ4" s="1" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AK4" s="1" t="n"/>
+      <c r="AL4" s="1" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="AM4" s="1" t="inlineStr">
+        <is>
+          <t>HEX206</t>
+        </is>
+      </c>
+      <c r="AN4" s="1" t="inlineStr">
+        <is>
+          <t>K204</t>
+        </is>
+      </c>
+      <c r="AO4" s="1" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="AP4" s="1" t="inlineStr">
+        <is>
+          <t>V202</t>
+        </is>
+      </c>
+      <c r="AQ4" s="1" t="inlineStr">
+        <is>
+          <t>V202</t>
+        </is>
+      </c>
+      <c r="AR4" s="1" t="inlineStr">
+        <is>
+          <t>T-351</t>
+        </is>
+      </c>
+      <c r="AS4" s="1" t="inlineStr">
+        <is>
+          <t>P301</t>
+        </is>
+      </c>
+      <c r="AT4" s="1" t="inlineStr">
+        <is>
+          <t>HEX304</t>
+        </is>
+      </c>
+      <c r="AU4" s="1" t="inlineStr">
+        <is>
+          <t>C-301</t>
+        </is>
+      </c>
+      <c r="AV4" s="1" t="inlineStr">
+        <is>
+          <t>C-301</t>
+        </is>
+      </c>
+      <c r="AW4" s="1" t="inlineStr">
+        <is>
+          <t>P302</t>
+        </is>
+      </c>
+      <c r="AX4" s="1" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="AY4" s="1" t="inlineStr">
+        <is>
+          <t>P304</t>
+        </is>
+      </c>
+      <c r="AZ4" s="1" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="BA4" s="1" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="BB4" s="1" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="BC4" s="1" t="inlineStr">
+        <is>
+          <t>B9</t>
+        </is>
+      </c>
+      <c r="BD4" s="1" t="inlineStr">
+        <is>
+          <t>HEX220</t>
+        </is>
+      </c>
+      <c r="BE4" s="1" t="inlineStr">
+        <is>
+          <t>T-351</t>
+        </is>
+      </c>
+      <c r="BF4" s="1" t="inlineStr">
+        <is>
+          <t>H302R</t>
+        </is>
+      </c>
+      <c r="BG4" s="1" t="n"/>
+      <c r="BH4" s="1" t="inlineStr">
+        <is>
+          <t>B100</t>
+        </is>
+      </c>
+      <c r="BI4" s="1" t="inlineStr">
+        <is>
+          <t>B100</t>
+        </is>
+      </c>
+      <c r="BJ4" s="1" t="inlineStr">
+        <is>
+          <t>E202-C</t>
+        </is>
+      </c>
+      <c r="BK4" s="1" t="inlineStr">
+        <is>
+          <t>FMX-1</t>
+        </is>
+      </c>
+      <c r="BL4" s="1" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="BM4" s="1" t="inlineStr">
+        <is>
+          <t>FMX-3</t>
+        </is>
+      </c>
+      <c r="BN4" s="1" t="inlineStr">
+        <is>
+          <t>R201-A</t>
+        </is>
+      </c>
+      <c r="BO4" s="1" t="inlineStr">
+        <is>
+          <t>R201-B</t>
+        </is>
+      </c>
+      <c r="BP4" s="1" t="inlineStr">
+        <is>
+          <t>R201-C</t>
+        </is>
+      </c>
+      <c r="BQ4" s="1" t="inlineStr">
+        <is>
+          <t>R201-D</t>
+        </is>
+      </c>
+      <c r="BS4" s="1" t="inlineStr">
+        <is>
+          <t>TBEGIN C</t>
+        </is>
+      </c>
+      <c r="BT4" s="1" t="n">
+        <v>72.2605933</v>
+      </c>
+      <c r="BU4" s="1" t="n">
+        <v>82.6685063</v>
+      </c>
+      <c r="BV4" s="1" t="n">
+        <v>72.78573609999999</v>
+      </c>
+      <c r="BW4" s="1" t="n">
+        <v>117.056917</v>
+      </c>
+      <c r="BX4" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="BY4" s="1" t="n"/>
+      <c r="BZ4" s="1" t="n">
+        <v>53.3320122</v>
+      </c>
+      <c r="CA4" s="1" t="n">
+        <v>45.6</v>
+      </c>
+      <c r="CB4" s="1" t="n"/>
+      <c r="CC4" s="1" t="n"/>
+      <c r="CD4" s="1" t="n"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>To</t>
+        </is>
+      </c>
+      <c r="B5" s="1" t="n"/>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
+      </c>
+      <c r="D5" s="1" t="n"/>
+      <c r="E5" s="1" t="inlineStr">
+        <is>
+          <t>HEX203</t>
+        </is>
+      </c>
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="inlineStr">
+        <is>
+          <t>HEX207</t>
+        </is>
+      </c>
+      <c r="H5" s="1" t="n"/>
+      <c r="I5" s="1" t="inlineStr">
+        <is>
+          <t>HEX210</t>
+        </is>
+      </c>
+      <c r="J5" s="1" t="n"/>
+      <c r="K5" s="1" t="inlineStr">
+        <is>
+          <t>HEX220</t>
+        </is>
+      </c>
+      <c r="L5" s="1" t="n"/>
+      <c r="M5" s="1" t="inlineStr">
+        <is>
+          <t>K201-S1</t>
+        </is>
+      </c>
+      <c r="N5" s="1" t="inlineStr">
+        <is>
+          <t>HEX206</t>
+        </is>
+      </c>
+      <c r="O5" s="1" t="n"/>
+      <c r="P5" s="1" t="n"/>
+      <c r="Q5" s="1" t="inlineStr">
+        <is>
+          <t>FMX-1</t>
+        </is>
+      </c>
+      <c r="R5" s="1" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="S5" s="1" t="inlineStr">
+        <is>
+          <t>FMX-3</t>
+        </is>
+      </c>
+      <c r="T5" s="1" t="inlineStr">
+        <is>
+          <t>H302R</t>
+        </is>
+      </c>
+      <c r="U5" s="1" t="inlineStr">
+        <is>
+          <t>K203</t>
+        </is>
+      </c>
+      <c r="V5" s="1" t="inlineStr">
+        <is>
+          <t>HEX203</t>
+        </is>
+      </c>
+      <c r="W5" s="1" t="inlineStr">
+        <is>
+          <t>V208</t>
+        </is>
+      </c>
+      <c r="X5" s="1" t="inlineStr">
+        <is>
+          <t>B9</t>
+        </is>
+      </c>
+      <c r="Y5" s="1" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="Z5" s="1" t="inlineStr">
+        <is>
+          <t>K201-S2</t>
+        </is>
+      </c>
+      <c r="AA5" s="1" t="inlineStr">
+        <is>
+          <t>B5</t>
+        </is>
+      </c>
+      <c r="AB5" s="1" t="inlineStr">
+        <is>
+          <t>K202</t>
+        </is>
+      </c>
+      <c r="AC5" s="1" t="inlineStr">
+        <is>
+          <t>B100</t>
+        </is>
+      </c>
+      <c r="AD5" s="1" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="AE5" s="1" t="inlineStr">
+        <is>
+          <t>E202-H</t>
+        </is>
+      </c>
+      <c r="AF5" s="1" t="inlineStr">
+        <is>
+          <t>HEX207</t>
+        </is>
+      </c>
+      <c r="AG5" s="1" t="inlineStr">
+        <is>
+          <t>V201</t>
+        </is>
+      </c>
+      <c r="AH5" s="1" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="AI5" s="1" t="inlineStr">
+        <is>
+          <t>V202</t>
+        </is>
+      </c>
+      <c r="AJ5" s="1" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="AK5" s="1" t="inlineStr">
+        <is>
+          <t>C201</t>
+        </is>
+      </c>
+      <c r="AL5" s="1" t="inlineStr">
+        <is>
+          <t>HEX206</t>
+        </is>
+      </c>
+      <c r="AM5" s="1" t="inlineStr">
+        <is>
+          <t>K204</t>
+        </is>
+      </c>
+      <c r="AN5" s="1" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AO5" s="1" t="inlineStr">
+        <is>
+          <t>V202</t>
+        </is>
+      </c>
+      <c r="AP5" s="1" t="inlineStr">
+        <is>
+          <t>B7</t>
+        </is>
+      </c>
+      <c r="AQ5" s="1" t="inlineStr">
+        <is>
+          <t>T-351</t>
+        </is>
+      </c>
+      <c r="AR5" s="1" t="inlineStr">
+        <is>
+          <t>P301</t>
+        </is>
+      </c>
+      <c r="AS5" s="1" t="inlineStr">
+        <is>
+          <t>HEX304</t>
+        </is>
+      </c>
+      <c r="AT5" s="1" t="inlineStr">
+        <is>
+          <t>C-301</t>
+        </is>
+      </c>
+      <c r="AU5" s="1" t="inlineStr">
+        <is>
+          <t>B10</t>
+        </is>
+      </c>
+      <c r="AV5" s="1" t="inlineStr">
+        <is>
+          <t>P302</t>
+        </is>
+      </c>
+      <c r="AW5" s="1" t="inlineStr">
+        <is>
+          <t>C302</t>
+        </is>
+      </c>
+      <c r="AX5" s="1" t="inlineStr">
+        <is>
+          <t>P304</t>
+        </is>
+      </c>
+      <c r="AY5" s="1" t="inlineStr">
+        <is>
+          <t>B9</t>
+        </is>
+      </c>
+      <c r="AZ5" s="1" t="n"/>
+      <c r="BA5" s="1" t="inlineStr">
+        <is>
+          <t>E301-H</t>
+        </is>
+      </c>
+      <c r="BB5" s="1" t="n"/>
+      <c r="BC5" s="1" t="inlineStr">
+        <is>
+          <t>HEX220</t>
+        </is>
+      </c>
+      <c r="BD5" s="1" t="n"/>
+      <c r="BE5" s="1" t="n"/>
+      <c r="BF5" s="1" t="n"/>
+      <c r="BG5" s="1" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="BH5" s="1" t="inlineStr">
+        <is>
+          <t>SPL-2</t>
+        </is>
+      </c>
+      <c r="BI5" s="1" t="inlineStr">
+        <is>
+          <t>E202-C</t>
+        </is>
+      </c>
+      <c r="BJ5" s="1" t="inlineStr">
+        <is>
+          <t>R201-A</t>
+        </is>
+      </c>
+      <c r="BK5" s="1" t="inlineStr">
+        <is>
+          <t>R201-B</t>
+        </is>
+      </c>
+      <c r="BL5" s="1" t="inlineStr">
+        <is>
+          <t>R201-C</t>
+        </is>
+      </c>
+      <c r="BM5" s="1" t="inlineStr">
+        <is>
+          <t>R201-D</t>
+        </is>
+      </c>
+      <c r="BN5" s="1" t="inlineStr">
+        <is>
+          <t>FMX-1</t>
+        </is>
+      </c>
+      <c r="BO5" s="1" t="inlineStr">
+        <is>
+          <t>B6</t>
+        </is>
+      </c>
+      <c r="BP5" s="1" t="inlineStr">
+        <is>
+          <t>FMX-3</t>
+        </is>
+      </c>
+      <c r="BQ5" s="1" t="inlineStr">
+        <is>
+          <t>HEX210</t>
+        </is>
+      </c>
+      <c r="BS5" s="1" t="inlineStr">
+        <is>
+          <t>TEND C</t>
+        </is>
+      </c>
+      <c r="BT5" s="1" t="n">
+        <v>45.5003164</v>
+      </c>
+      <c r="BU5" s="1" t="n">
+        <v>83.54232690000001</v>
+      </c>
+      <c r="BV5" s="1" t="n">
+        <v>72.65786730000001</v>
+      </c>
+      <c r="BW5" s="1" t="n">
+        <v>117.176619</v>
+      </c>
+      <c r="BX5" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="BY5" s="1" t="n"/>
+      <c r="BZ5" s="1" t="n">
+        <v>182.222222</v>
+      </c>
+      <c r="CA5" s="1" t="n">
+        <v>45.5</v>
+      </c>
+      <c r="CB5" s="1" t="n"/>
+      <c r="CC5" s="1" t="n"/>
+      <c r="CD5" s="1" t="n"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>MIXED Substream</t>
+        </is>
+      </c>
+      <c r="B6" s="1" t="n"/>
+      <c r="C6" s="1" t="n"/>
+      <c r="D6" s="1" t="n"/>
+      <c r="E6" s="1" t="n"/>
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n"/>
+      <c r="I6" s="1" t="n"/>
+      <c r="J6" s="1" t="n"/>
+      <c r="K6" s="1" t="n"/>
+      <c r="L6" s="1" t="n"/>
+      <c r="M6" s="1" t="n"/>
+      <c r="N6" s="1" t="n"/>
+      <c r="O6" s="1" t="n"/>
+      <c r="P6" s="1" t="n"/>
+      <c r="Q6" s="1" t="n"/>
+      <c r="R6" s="1" t="n"/>
+      <c r="S6" s="1" t="n"/>
+      <c r="T6" s="1" t="n"/>
+      <c r="U6" s="1" t="n"/>
+      <c r="V6" s="1" t="n"/>
+      <c r="W6" s="1" t="n"/>
+      <c r="X6" s="1" t="n"/>
+      <c r="Y6" s="1" t="n"/>
+      <c r="Z6" s="1" t="n"/>
+      <c r="AA6" s="1" t="n"/>
+      <c r="AB6" s="1" t="n"/>
+      <c r="AC6" s="1" t="n"/>
+      <c r="AD6" s="1" t="n"/>
+      <c r="AE6" s="1" t="n"/>
+      <c r="AF6" s="1" t="n"/>
+      <c r="AG6" s="1" t="n"/>
+      <c r="AH6" s="1" t="n"/>
+      <c r="AI6" s="1" t="n"/>
+      <c r="AJ6" s="1" t="n"/>
+      <c r="AK6" s="1" t="n"/>
+      <c r="AL6" s="1" t="n"/>
+      <c r="AM6" s="1" t="n"/>
+      <c r="AN6" s="1" t="n"/>
+      <c r="AO6" s="1" t="n"/>
+      <c r="AP6" s="1" t="n"/>
+      <c r="AQ6" s="1" t="n"/>
+      <c r="AR6" s="1" t="n"/>
+      <c r="AS6" s="1" t="n"/>
+      <c r="AT6" s="1" t="n"/>
+      <c r="AU6" s="1" t="n"/>
+      <c r="AV6" s="1" t="n"/>
+      <c r="AW6" s="1" t="n"/>
+      <c r="AX6" s="1" t="n"/>
+      <c r="AY6" s="1" t="n"/>
+      <c r="AZ6" s="1" t="n"/>
+      <c r="BA6" s="1" t="n"/>
+      <c r="BB6" s="1" t="n"/>
+      <c r="BC6" s="1" t="n"/>
+      <c r="BD6" s="1" t="n"/>
+      <c r="BE6" s="1" t="n"/>
+      <c r="BF6" s="1" t="n"/>
+      <c r="BG6" s="1" t="n"/>
+      <c r="BH6" s="1" t="n"/>
+      <c r="BI6" s="1" t="n"/>
+      <c r="BJ6" s="1" t="n"/>
+      <c r="BK6" s="1" t="n"/>
+      <c r="BL6" s="1" t="n"/>
+      <c r="BM6" s="1" t="n"/>
+      <c r="BN6" s="1" t="n"/>
+      <c r="BO6" s="1" t="n"/>
+      <c r="BP6" s="1" t="n"/>
+      <c r="BQ6" s="1" t="n"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Temperature</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>20.5722</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>23.2695</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>29.1543</v>
+      </c>
+      <c r="I7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" s="1" t="n">
+        <v>24.24</v>
+      </c>
+      <c r="K7" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="L7" s="1" t="n">
+        <v>23.2629</v>
+      </c>
+      <c r="M7" s="1" t="n">
+        <v>37.7778</v>
+      </c>
+      <c r="N7" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>236.841</v>
+      </c>
+      <c r="P7" s="1" t="n">
+        <v>49.969</v>
+      </c>
+      <c r="Q7" s="1" t="n">
+        <v>53.332</v>
+      </c>
+      <c r="R7" s="1" t="n">
+        <v>53.332</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <v>53.332</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="U7" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="V7" s="1" t="n">
+        <v>88.43980000000001</v>
+      </c>
+      <c r="W7" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="X7" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="Y7" s="1" t="n">
+        <v>89.9547</v>
+      </c>
+      <c r="Z7" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AA7" s="1" t="n">
+        <v>45.0701</v>
+      </c>
+      <c r="AB7" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AC7" s="1" t="n">
+        <v>53.332</v>
+      </c>
+      <c r="AD7" s="1" t="n">
+        <v>21.1581</v>
+      </c>
+      <c r="AE7" s="1" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="AF7" s="1" t="n">
+        <v>190.6</v>
+      </c>
+      <c r="AG7" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AH7" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AI7" s="1" t="n">
+        <v>38.0987</v>
+      </c>
+      <c r="AJ7" s="1" t="n">
+        <v>37.8</v>
+      </c>
+      <c r="AK7" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL7" s="1" t="n">
+        <v>25.1385</v>
+      </c>
+      <c r="AM7" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="AN7" s="1" t="n">
+        <v>18.5671</v>
+      </c>
+      <c r="AO7" s="1" t="n">
+        <v>33.4015</v>
+      </c>
+      <c r="AP7" s="1" t="n">
+        <v>37.1681</v>
+      </c>
+      <c r="AQ7" s="1" t="n">
+        <v>37.1681</v>
+      </c>
+      <c r="AR7" s="1" t="n">
+        <v>36.8562</v>
+      </c>
+      <c r="AS7" s="1" t="n">
+        <v>36.871</v>
+      </c>
+      <c r="AT7" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="AU7" s="1" t="n">
+        <v>45.5003</v>
+      </c>
+      <c r="AV7" s="1" t="n">
+        <v>83.5423</v>
+      </c>
+      <c r="AW7" s="1" t="n">
+        <v>83.5515</v>
+      </c>
+      <c r="AX7" s="1" t="n">
+        <v>117.177</v>
+      </c>
+      <c r="AY7" s="1" t="n">
+        <v>117.808</v>
+      </c>
+      <c r="AZ7" s="1" t="n">
+        <v>93.62779999999999</v>
+      </c>
+      <c r="BA7" s="1" t="n">
+        <v>72.6579</v>
+      </c>
+      <c r="BB7" s="1" t="n">
+        <v>21.8476</v>
+      </c>
+      <c r="BC7" s="1" t="n">
+        <v>116.88</v>
+      </c>
+      <c r="BD7" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="BE7" s="1" t="n">
+        <v>36.8562</v>
+      </c>
+      <c r="BF7" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="BG7" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="BH7" s="1" t="n">
+        <v>53.332</v>
+      </c>
+      <c r="BI7" s="1" t="n">
+        <v>53.332</v>
+      </c>
+      <c r="BJ7" s="1" t="n">
+        <v>182.222</v>
+      </c>
+      <c r="BK7" s="1" t="n">
+        <v>190.161</v>
+      </c>
+      <c r="BL7" s="1" t="n">
+        <v>200.352</v>
+      </c>
+      <c r="BM7" s="1" t="n">
+        <v>208.393</v>
+      </c>
+      <c r="BN7" s="1" t="n">
+        <v>278.488</v>
+      </c>
+      <c r="BO7" s="1" t="n">
+        <v>262.179</v>
+      </c>
+      <c r="BP7" s="1" t="n">
+        <v>254.611</v>
+      </c>
+      <c r="BQ7" s="1" t="n">
+        <v>250.041</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Pressure</t>
+        </is>
+      </c>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>bar</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" s="1" t="n">
+        <v>35.487</v>
+      </c>
+      <c r="N8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="P8" s="1" t="n">
+        <v>1.35799</v>
+      </c>
+      <c r="Q8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="R8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="U8" s="1" t="n">
+        <v>74.9853</v>
+      </c>
+      <c r="V8" s="1" t="n">
+        <v>53.268</v>
+      </c>
+      <c r="W8" s="1" t="n">
+        <v>53.268</v>
+      </c>
+      <c r="X8" s="1" t="n">
+        <v>53.268</v>
+      </c>
+      <c r="Y8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="Z8" s="1" t="n">
+        <v>53.268</v>
+      </c>
+      <c r="AA8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="AB8" s="1" t="n">
+        <v>74.9853</v>
+      </c>
+      <c r="AC8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="AD8" s="1" t="n">
+        <v>2.3922</v>
+      </c>
+      <c r="AE8" s="1" t="n">
+        <v>79.95310000000001</v>
+      </c>
+      <c r="AF8" s="1" t="n">
+        <v>74.9853</v>
+      </c>
+      <c r="AG8" s="1" t="n">
+        <v>74.9853</v>
+      </c>
+      <c r="AH8" s="1" t="n">
+        <v>74.9853</v>
+      </c>
+      <c r="AI8" s="1" t="n">
+        <v>2.3922</v>
+      </c>
+      <c r="AJ8" s="1" t="n">
+        <v>74.9853</v>
+      </c>
+      <c r="AK8" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="AL8" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="AM8" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="AN8" s="1" t="n">
+        <v>2.3922</v>
+      </c>
+      <c r="AO8" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="AP8" s="1" t="n">
+        <v>2.3922</v>
+      </c>
+      <c r="AQ8" s="1" t="n">
+        <v>2.3922</v>
+      </c>
+      <c r="AR8" s="1" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AS8" s="1" t="n">
+        <v>1.84062</v>
+      </c>
+      <c r="AT8" s="1" t="n">
+        <v>1.84062</v>
+      </c>
+      <c r="AU8" s="1" t="n">
+        <v>1.35799</v>
+      </c>
+      <c r="AV8" s="1" t="n">
+        <v>1.70273</v>
+      </c>
+      <c r="AW8" s="1" t="n">
+        <v>2.04746</v>
+      </c>
+      <c r="AX8" s="1" t="n">
+        <v>1.70273</v>
+      </c>
+      <c r="AY8" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="AZ8" s="1" t="n">
+        <v>1.66217</v>
+      </c>
+      <c r="BA8" s="1" t="n">
+        <v>1.35799</v>
+      </c>
+      <c r="BB8" s="1" t="n">
+        <v>1.35799</v>
+      </c>
+      <c r="BC8" s="1" t="n">
+        <v>53.268</v>
+      </c>
+      <c r="BD8" s="1" t="n">
+        <v>53.268</v>
+      </c>
+      <c r="BE8" s="1" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="BF8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="BI8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="BJ8" s="1" t="n">
+        <v>79.95820000000001</v>
+      </c>
+      <c r="BK8" s="1" t="n">
+        <v>79.95780000000001</v>
+      </c>
+      <c r="BL8" s="1" t="n">
+        <v>79.95699999999999</v>
+      </c>
+      <c r="BM8" s="1" t="n">
+        <v>79.9555</v>
+      </c>
+      <c r="BN8" s="1" t="n">
+        <v>79.95780000000001</v>
+      </c>
+      <c r="BO8" s="1" t="n">
+        <v>79.95699999999999</v>
+      </c>
+      <c r="BP8" s="1" t="n">
+        <v>79.9555</v>
+      </c>
+      <c r="BQ8" s="1" t="n">
+        <v>79.95310000000001</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Molar Vapor Fraction</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" s="1" t="n">
+        <v>0.9991679999999999</v>
+      </c>
+      <c r="N9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1" t="n">
+        <v>0.998694</v>
+      </c>
+      <c r="X9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="1" t="n">
+        <v>0.919751</v>
+      </c>
+      <c r="AH9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BN9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BO9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP9" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BQ9" s="1" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Molar Liquid Fraction</t>
+        </is>
+      </c>
+      <c r="B10" s="1" t="n"/>
+      <c r="C10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1" t="n">
+        <v>0.000832497</v>
+      </c>
+      <c r="N10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" s="1" t="n">
+        <v>0.00130613</v>
+      </c>
+      <c r="X10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="1" t="n">
+        <v>0.0802488</v>
+      </c>
+      <c r="AH10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BE10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF10" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="1" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Molar Enthalpy</t>
+        </is>
+      </c>
+      <c r="B11" s="1" t="inlineStr">
+        <is>
+          <t>J/kmol</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>-289730000</v>
+      </c>
+      <c r="D11" s="2" t="n">
+        <v>-289246000</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>-289730000</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>-289012000</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>-289730000</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>-288501000</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>-289730000</v>
+      </c>
+      <c r="J11" s="2" t="n">
+        <v>-288928000</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>-289730000</v>
+      </c>
+      <c r="L11" s="2" t="n">
+        <v>-289012000</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>-55339500</v>
+      </c>
+      <c r="N11" s="2" t="n">
+        <v>-235562000</v>
+      </c>
+      <c r="O11" s="2" t="n">
+        <v>-269519000</v>
+      </c>
+      <c r="P11" s="2" t="n">
+        <v>-239669000</v>
+      </c>
+      <c r="Q11" s="2" t="n">
+        <v>-42732100</v>
+      </c>
+      <c r="R11" s="2" t="n">
+        <v>-42732100</v>
+      </c>
+      <c r="S11" s="2" t="n">
+        <v>-42732100</v>
+      </c>
+      <c r="T11" s="2" t="n">
+        <v>-236903000</v>
+      </c>
+      <c r="U11" s="2" t="n">
+        <v>-250334000</v>
+      </c>
+      <c r="V11" s="2" t="n">
+        <v>-53762300</v>
+      </c>
+      <c r="W11" s="2" t="n">
+        <v>-55375500</v>
+      </c>
+      <c r="X11" s="2" t="n">
+        <v>-287672000</v>
+      </c>
+      <c r="Y11" s="2" t="n">
+        <v>-53472300</v>
+      </c>
+      <c r="Z11" s="2" t="n">
+        <v>-55071700</v>
+      </c>
+      <c r="AA11" s="2" t="n">
+        <v>-40132500</v>
+      </c>
+      <c r="AB11" s="2" t="n">
+        <v>-40364000</v>
+      </c>
+      <c r="AC11" s="2" t="n">
+        <v>-42732100</v>
+      </c>
+      <c r="AD11" s="2" t="n">
+        <v>-64531300</v>
+      </c>
+      <c r="AE11" s="2" t="n">
+        <v>-48793600</v>
+      </c>
+      <c r="AF11" s="2" t="n">
+        <v>-48787900</v>
+      </c>
+      <c r="AG11" s="2" t="n">
+        <v>-57213800</v>
+      </c>
+      <c r="AH11" s="2" t="n">
+        <v>-40364000</v>
+      </c>
+      <c r="AI11" s="2" t="n">
+        <v>-250523000</v>
+      </c>
+      <c r="AJ11" s="2" t="n">
+        <v>-40364000</v>
+      </c>
+      <c r="AK11" s="2" t="n">
+        <v>-288712000</v>
+      </c>
+      <c r="AL11" s="2" t="n">
+        <v>-39945000</v>
+      </c>
+      <c r="AM11" s="2" t="n">
+        <v>-33417500</v>
+      </c>
+      <c r="AN11" s="2" t="n">
+        <v>-39993700</v>
+      </c>
+      <c r="AO11" s="2" t="n">
+        <v>-287738000</v>
+      </c>
+      <c r="AP11" s="2" t="n">
+        <v>-236381000</v>
+      </c>
+      <c r="AQ11" s="2" t="n">
+        <v>-254972000</v>
+      </c>
+      <c r="AR11" s="2" t="n">
+        <v>-254764000</v>
+      </c>
+      <c r="AS11" s="2" t="n">
+        <v>-254759000</v>
+      </c>
+      <c r="AT11" s="2" t="n">
+        <v>-252797000</v>
+      </c>
+      <c r="AU11" s="2" t="n">
+        <v>-330059000</v>
+      </c>
+      <c r="AV11" s="2" t="n">
+        <v>-248903000</v>
+      </c>
+      <c r="AW11" s="2" t="n">
+        <v>-248901000</v>
+      </c>
+      <c r="AX11" s="2" t="n">
+        <v>-280829000</v>
+      </c>
+      <c r="AY11" s="2" t="n">
+        <v>-280694000</v>
+      </c>
+      <c r="AZ11" s="2" t="n">
+        <v>-272034000</v>
+      </c>
+      <c r="BA11" s="2" t="n">
+        <v>-236853000</v>
+      </c>
+      <c r="BB11" s="2" t="n">
+        <v>-72124200</v>
+      </c>
+      <c r="BC11" s="2" t="n">
+        <v>-280777000</v>
+      </c>
+      <c r="BD11" s="2" t="n">
+        <v>-288330000</v>
+      </c>
+      <c r="BE11" s="2" t="n">
+        <v>-330050000</v>
+      </c>
+      <c r="BF11" s="2" t="n">
+        <v>-275586000</v>
+      </c>
+      <c r="BG11" s="2" t="n">
+        <v>-236903000</v>
+      </c>
+      <c r="BH11" s="2" t="n">
+        <v>-42732100</v>
+      </c>
+      <c r="BI11" s="2" t="n">
+        <v>-42732100</v>
+      </c>
+      <c r="BJ11" s="2" t="n">
+        <v>-38463100</v>
+      </c>
+      <c r="BK11" s="2" t="n">
+        <v>-42033300</v>
+      </c>
+      <c r="BL11" s="2" t="n">
+        <v>-43910600</v>
+      </c>
+      <c r="BM11" s="2" t="n">
+        <v>-45067100</v>
+      </c>
+      <c r="BN11" s="2" t="n">
+        <v>-41543000</v>
+      </c>
+      <c r="BO11" s="2" t="n">
+        <v>-44456700</v>
+      </c>
+      <c r="BP11" s="2" t="n">
+        <v>-45838900</v>
+      </c>
+      <c r="BQ11" s="2" t="n">
+        <v>-46592500</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Molar Entropy</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="inlineStr">
+        <is>
+          <t>J/kmol-K</t>
+        </is>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-165720</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>-164277</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>-165720</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>-163588</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>-165720</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>-162106</v>
+      </c>
+      <c r="I12" s="1" t="n">
+        <v>-165720</v>
+      </c>
+      <c r="J12" s="1" t="n">
+        <v>-163341</v>
+      </c>
+      <c r="K12" s="1" t="n">
+        <v>-165720</v>
+      </c>
+      <c r="L12" s="1" t="n">
+        <v>-163589</v>
+      </c>
+      <c r="M12" s="1" t="n">
+        <v>-2240.91</v>
+      </c>
+      <c r="N12" s="1" t="n">
+        <v>-57447.1</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>-121647</v>
+      </c>
+      <c r="P12" s="1" t="n">
+        <v>-243575</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>-35650.6</v>
+      </c>
+      <c r="R12" s="1" t="n">
+        <v>-35650.6</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>-35650.6</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>-49618.2</v>
+      </c>
+      <c r="U12" s="1" t="n">
+        <v>-223343</v>
+      </c>
+      <c r="V12" s="1" t="n">
+        <v>-979.758</v>
+      </c>
+      <c r="W12" s="1" t="n">
+        <v>-5785.72</v>
+      </c>
+      <c r="X12" s="1" t="n">
+        <v>-159971</v>
+      </c>
+      <c r="Y12" s="1" t="n">
+        <v>-4302.65</v>
+      </c>
+      <c r="Z12" s="1" t="n">
+        <v>-5584.07</v>
+      </c>
+      <c r="AA12" s="1" t="n">
+        <v>-44115.3</v>
+      </c>
+      <c r="AB12" s="1" t="n">
+        <v>-44305</v>
+      </c>
+      <c r="AC12" s="1" t="n">
+        <v>-35650.6</v>
+      </c>
+      <c r="AD12" s="1" t="n">
+        <v>-16987.7</v>
+      </c>
+      <c r="AE12" s="1" t="n">
+        <v>-36894</v>
+      </c>
+      <c r="AF12" s="1" t="n">
+        <v>-36333.5</v>
+      </c>
+      <c r="AG12" s="1" t="n">
+        <v>-58672.6</v>
+      </c>
+      <c r="AH12" s="1" t="n">
+        <v>-44305</v>
+      </c>
+      <c r="AI12" s="1" t="n">
+        <v>-222824</v>
+      </c>
+      <c r="AJ12" s="1" t="n">
+        <v>-44305</v>
+      </c>
+      <c r="AK12" s="1" t="n">
+        <v>-163187</v>
+      </c>
+      <c r="AL12" s="1" t="n">
+        <v>-45059.8</v>
+      </c>
+      <c r="AM12" s="1" t="n">
+        <v>-28260.8</v>
+      </c>
+      <c r="AN12" s="1" t="n">
+        <v>-16666.6</v>
+      </c>
+      <c r="AO12" s="1" t="n">
+        <v>-161286</v>
+      </c>
+      <c r="AP12" s="1" t="n">
+        <v>-27986.1</v>
+      </c>
+      <c r="AQ12" s="1" t="n">
+        <v>-217965</v>
+      </c>
+      <c r="AR12" s="1" t="n">
+        <v>-218471</v>
+      </c>
+      <c r="AS12" s="1" t="n">
+        <v>-218470</v>
+      </c>
+      <c r="AT12" s="1" t="n">
+        <v>-212619</v>
+      </c>
+      <c r="AU12" s="1" t="n">
+        <v>-34726.7</v>
+      </c>
+      <c r="AV12" s="1" t="n">
+        <v>-203574</v>
+      </c>
+      <c r="AW12" s="1" t="n">
+        <v>-203574</v>
+      </c>
+      <c r="AX12" s="1" t="n">
+        <v>-142787</v>
+      </c>
+      <c r="AY12" s="1" t="n">
+        <v>-142747</v>
+      </c>
+      <c r="AZ12" s="1" t="n">
+        <v>-167728</v>
+      </c>
+      <c r="BA12" s="1" t="n">
+        <v>-235152</v>
+      </c>
+      <c r="BB12" s="1" t="n">
+        <v>-12405.3</v>
+      </c>
+      <c r="BC12" s="1" t="n">
+        <v>-142927</v>
+      </c>
+      <c r="BD12" s="1" t="n">
+        <v>-161924</v>
+      </c>
+      <c r="BE12" s="1" t="n">
+        <v>-21771</v>
+      </c>
+      <c r="BF12" s="1" t="n">
+        <v>-132091</v>
+      </c>
+      <c r="BG12" s="1" t="n">
+        <v>-49618.2</v>
+      </c>
+      <c r="BH12" s="1" t="n">
+        <v>-35650.6</v>
+      </c>
+      <c r="BI12" s="1" t="n">
+        <v>-35650.6</v>
+      </c>
+      <c r="BJ12" s="1" t="n">
+        <v>-24639.6</v>
+      </c>
+      <c r="BK12" s="1" t="n">
+        <v>-28414</v>
+      </c>
+      <c r="BL12" s="1" t="n">
+        <v>-30407.8</v>
+      </c>
+      <c r="BM12" s="1" t="n">
+        <v>-31610.4</v>
+      </c>
+      <c r="BN12" s="1" t="n">
+        <v>-25384.2</v>
+      </c>
+      <c r="BO12" s="1" t="n">
+        <v>-29414.6</v>
+      </c>
+      <c r="BP12" s="1" t="n">
+        <v>-31353.1</v>
+      </c>
+      <c r="BQ12" s="1" t="n">
+        <v>-32429.1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Molar Density</t>
+        </is>
+      </c>
+      <c r="B13" s="1" t="inlineStr">
+        <is>
+          <t>kmol/cum</t>
+        </is>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>53.8152</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>53.5565</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>53.8152</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>53.4297</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>53.8152</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>53.1494</v>
+      </c>
+      <c r="I13" s="1" t="n">
+        <v>53.8152</v>
+      </c>
+      <c r="J13" s="1" t="n">
+        <v>53.3838</v>
+      </c>
+      <c r="K13" s="1" t="n">
+        <v>53.8152</v>
+      </c>
+      <c r="L13" s="1" t="n">
+        <v>53.43</v>
+      </c>
+      <c r="M13" s="1" t="n">
+        <v>1.35487</v>
+      </c>
+      <c r="N13" s="1" t="n">
+        <v>1.03839</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>38.8734</v>
+      </c>
+      <c r="P13" s="1" t="n">
+        <v>23.3408</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>2.86614</v>
+      </c>
+      <c r="R13" s="1" t="n">
+        <v>2.86614</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>2.86614</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0.275863</v>
+      </c>
+      <c r="U13" s="1" t="n">
+        <v>26.7735</v>
+      </c>
+      <c r="V13" s="1" t="n">
+        <v>1.7323</v>
+      </c>
+      <c r="W13" s="1" t="n">
+        <v>2.01924</v>
+      </c>
+      <c r="X13" s="1" t="n">
+        <v>52.7766</v>
+      </c>
+      <c r="Y13" s="1" t="n">
+        <v>2.55867</v>
+      </c>
+      <c r="Z13" s="1" t="n">
+        <v>2.01671</v>
+      </c>
+      <c r="AA13" s="1" t="n">
+        <v>2.94939</v>
+      </c>
+      <c r="AB13" s="1" t="n">
+        <v>2.83881</v>
+      </c>
+      <c r="AC13" s="1" t="n">
+        <v>2.86614</v>
+      </c>
+      <c r="AD13" s="1" t="n">
+        <v>0.0977818</v>
+      </c>
+      <c r="AE13" s="1" t="n">
+        <v>2.02844</v>
+      </c>
+      <c r="AF13" s="1" t="n">
+        <v>1.90525</v>
+      </c>
+      <c r="AG13" s="1" t="n">
+        <v>3.05821</v>
+      </c>
+      <c r="AH13" s="1" t="n">
+        <v>2.83881</v>
+      </c>
+      <c r="AI13" s="1" t="n">
+        <v>26.6101</v>
+      </c>
+      <c r="AJ13" s="1" t="n">
+        <v>2.83881</v>
+      </c>
+      <c r="AK13" s="1" t="n">
+        <v>53.4277</v>
+      </c>
+      <c r="AL13" s="1" t="n">
+        <v>2.88444</v>
+      </c>
+      <c r="AM13" s="1" t="n">
+        <v>1.73213</v>
+      </c>
+      <c r="AN13" s="1" t="n">
+        <v>0.0985864</v>
+      </c>
+      <c r="AO13" s="1" t="n">
+        <v>52.6537</v>
+      </c>
+      <c r="AP13" s="1" t="n">
+        <v>0.0934778</v>
+      </c>
+      <c r="AQ13" s="1" t="n">
+        <v>28.3134</v>
+      </c>
+      <c r="AR13" s="1" t="n">
+        <v>28.3325</v>
+      </c>
+      <c r="AS13" s="1" t="n">
+        <v>28.3335</v>
+      </c>
+      <c r="AT13" s="1" t="n">
+        <v>27.6123</v>
+      </c>
+      <c r="AU13" s="1" t="n">
+        <v>0.0518163</v>
+      </c>
+      <c r="AV13" s="1" t="n">
+        <v>26.2512</v>
+      </c>
+      <c r="AW13" s="1" t="n">
+        <v>26.2518</v>
+      </c>
+      <c r="AX13" s="1" t="n">
+        <v>48.2807</v>
+      </c>
+      <c r="AY13" s="1" t="n">
+        <v>48.3542</v>
+      </c>
+      <c r="AZ13" s="1" t="n">
+        <v>36.1809</v>
+      </c>
+      <c r="BA13" s="1" t="n">
+        <v>22.3614</v>
+      </c>
+      <c r="BB13" s="1" t="n">
+        <v>0.0553823</v>
+      </c>
+      <c r="BC13" s="1" t="n">
+        <v>48.4106</v>
+      </c>
+      <c r="BD13" s="1" t="n">
+        <v>53.1638</v>
+      </c>
+      <c r="BE13" s="1" t="n">
+        <v>0.0394581</v>
+      </c>
+      <c r="BF13" s="1" t="n">
+        <v>44.2318</v>
+      </c>
+      <c r="BG13" s="1" t="n">
+        <v>0.275863</v>
+      </c>
+      <c r="BH13" s="1" t="n">
+        <v>2.86614</v>
+      </c>
+      <c r="BI13" s="1" t="n">
+        <v>2.86614</v>
+      </c>
+      <c r="BJ13" s="1" t="n">
+        <v>2.04758</v>
+      </c>
+      <c r="BK13" s="1" t="n">
+        <v>2.01826</v>
+      </c>
+      <c r="BL13" s="1" t="n">
+        <v>1.9777</v>
+      </c>
+      <c r="BM13" s="1" t="n">
+        <v>1.94644</v>
+      </c>
+      <c r="BN13" s="1" t="n">
+        <v>1.69756</v>
+      </c>
+      <c r="BO13" s="1" t="n">
+        <v>1.75104</v>
+      </c>
+      <c r="BP13" s="1" t="n">
+        <v>1.77736</v>
+      </c>
+      <c r="BQ13" s="1" t="n">
+        <v>1.79363</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Enthalpy Flow</t>
+        </is>
+      </c>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>MW</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-230355</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>-229970</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>-8048.06</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>-8028.11</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>-111684</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>-111210</v>
+      </c>
+      <c r="I14" s="1" t="n">
+        <v>-44673.5</v>
+      </c>
+      <c r="J14" s="1" t="n">
+        <v>-44549.8</v>
+      </c>
+      <c r="K14" s="1" t="n">
+        <v>-4133</v>
+      </c>
+      <c r="L14" s="1" t="n">
+        <v>-4122.76</v>
+      </c>
+      <c r="M14" s="1" t="n">
+        <v>-684.6559999999999</v>
+      </c>
+      <c r="N14" s="1" t="n">
+        <v>-30.2957</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>-34.6629</v>
+      </c>
+      <c r="P14" s="1" t="n">
+        <v>-850.8440000000001</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>-580.888</v>
+      </c>
+      <c r="R14" s="1" t="n">
+        <v>-617.193</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>-617.193</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>-2464.13</v>
+      </c>
+      <c r="U14" s="1" t="n">
+        <v>-1129.66</v>
+      </c>
+      <c r="V14" s="1" t="n">
+        <v>-665.143</v>
+      </c>
+      <c r="W14" s="1" t="n">
+        <v>-685.101</v>
+      </c>
+      <c r="X14" s="1" t="n">
+        <v>-4.6486</v>
+      </c>
+      <c r="Y14" s="1" t="n">
+        <v>-660.691</v>
+      </c>
+      <c r="Z14" s="1" t="n">
+        <v>-680.452</v>
+      </c>
+      <c r="AA14" s="1" t="n">
+        <v>-2048.67</v>
+      </c>
+      <c r="AB14" s="1" t="n">
+        <v>-2060.49</v>
+      </c>
+      <c r="AC14" s="1" t="n">
+        <v>-2709.36</v>
+      </c>
+      <c r="AD14" s="1" t="n">
+        <v>-49.3387</v>
+      </c>
+      <c r="AE14" s="1" t="n">
+        <v>-2743.82</v>
+      </c>
+      <c r="AF14" s="1" t="n">
+        <v>-2743.47</v>
+      </c>
+      <c r="AG14" s="1" t="n">
+        <v>-3217.29</v>
+      </c>
+      <c r="AH14" s="1" t="n">
+        <v>-2087.63</v>
+      </c>
+      <c r="AI14" s="1" t="n">
+        <v>-1130.51</v>
+      </c>
+      <c r="AJ14" s="1" t="n">
+        <v>-27.1392</v>
+      </c>
+      <c r="AK14" s="1" t="n">
+        <v>-160.26</v>
+      </c>
+      <c r="AL14" s="1" t="n">
+        <v>-26.7248</v>
+      </c>
+      <c r="AM14" s="1" t="n">
+        <v>-22.3576</v>
+      </c>
+      <c r="AN14" s="1" t="n">
+        <v>-26.7574</v>
+      </c>
+      <c r="AO14" s="1" t="n">
+        <v>-160.674</v>
+      </c>
+      <c r="AP14" s="1" t="n">
+        <v>-22.5813</v>
+      </c>
+      <c r="AQ14" s="1" t="n">
+        <v>-1268.61</v>
+      </c>
+      <c r="AR14" s="1" t="n">
+        <v>-1264.07</v>
+      </c>
+      <c r="AS14" s="1" t="n">
+        <v>-1264.05</v>
+      </c>
+      <c r="AT14" s="1" t="n">
+        <v>-1254.31</v>
+      </c>
+      <c r="AU14" s="1" t="n">
+        <v>-7.4285</v>
+      </c>
+      <c r="AV14" s="1" t="n">
+        <v>-1229.39</v>
+      </c>
+      <c r="AW14" s="1" t="n">
+        <v>-1229.38</v>
+      </c>
+      <c r="AX14" s="1" t="n">
+        <v>-376.259</v>
+      </c>
+      <c r="AY14" s="1" t="n">
+        <v>-376.078</v>
+      </c>
+      <c r="AZ14" s="1" t="n">
+        <v>-13.4239</v>
+      </c>
+      <c r="BA14" s="1" t="n">
+        <v>-840.8440000000001</v>
+      </c>
+      <c r="BB14" s="1" t="n">
+        <v>-56.7672</v>
+      </c>
+      <c r="BC14" s="1" t="n">
+        <v>-380.727</v>
+      </c>
+      <c r="BD14" s="1" t="n">
+        <v>-390.968</v>
+      </c>
+      <c r="BE14" s="1" t="n">
+        <v>-4.53391</v>
+      </c>
+      <c r="BF14" s="1" t="n">
+        <v>-2866.5</v>
+      </c>
+      <c r="BG14" s="1" t="n">
+        <v>-2464.13</v>
+      </c>
+      <c r="BH14" s="1" t="n">
+        <v>-1815.27</v>
+      </c>
+      <c r="BI14" s="1" t="n">
+        <v>-894.09</v>
+      </c>
+      <c r="BJ14" s="1" t="n">
+        <v>-804.768</v>
+      </c>
+      <c r="BK14" s="1" t="n">
+        <v>-1385.66</v>
+      </c>
+      <c r="BL14" s="1" t="n">
+        <v>-2002.85</v>
+      </c>
+      <c r="BM14" s="1" t="n">
+        <v>-2620.04</v>
+      </c>
+      <c r="BN14" s="1" t="n">
+        <v>-804.768</v>
+      </c>
+      <c r="BO14" s="1" t="n">
+        <v>-1385.66</v>
+      </c>
+      <c r="BP14" s="1" t="n">
+        <v>-2002.85</v>
+      </c>
+      <c r="BQ14" s="1" t="n">
+        <v>-2620.04</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Entropy Flow</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>kW/K</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>-131758.448</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-130611.1668</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-4603.333333333333</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-4544.111111111111</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-63880.917</v>
+      </c>
+      <c r="H15" t="n">
+        <v>-62487.81035</v>
+      </c>
+      <c r="I15" t="n">
+        <v>-25552.3668</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-25185.54879</v>
+      </c>
+      <c r="K15" t="n">
+        <v>-2363.9958</v>
+      </c>
+      <c r="L15" t="n">
+        <v>-2333.597085</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-27.7243517775</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-7.388271531</v>
+      </c>
+      <c r="O15" t="n">
+        <v>-15.64502067</v>
+      </c>
+      <c r="P15" t="n">
+        <v>-864.7115479166666</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>-484.6233631611111</v>
+      </c>
+      <c r="R15" t="n">
+        <v>-514.9125090388889</v>
+      </c>
+      <c r="S15" t="n">
+        <v>-514.9125090388889</v>
+      </c>
+      <c r="T15" t="n">
+        <v>-516.1009507333332</v>
+      </c>
+      <c r="U15" t="n">
+        <v>-1007.860103388889</v>
+      </c>
+      <c r="V15" t="n">
+        <v>-12.1214843295</v>
+      </c>
+      <c r="W15" t="n">
+        <v>-71.58044569666667</v>
+      </c>
+      <c r="X15" t="n">
+        <v>-2.585029156305556</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>-53.16246773749999</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-68.99537290249999</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>-2251.988031</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>-2261.671794444444</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>-2260.366875333333</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-12.98827635138889</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-2074.662351666667</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-2043.133631388889</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-3299.323277444444</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>-2291.4546</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>-1005.518058222222</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>-29.78895902777778</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>-90.58238391666666</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>-30.14675852555555</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>-18.90757423111111</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>-11.15060354555555</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>-90.06299843333333</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>-2.673481037333333</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>-1084.478802916667</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>-1083.99848425</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>-1083.9935225</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>-1054.96232325</v>
+      </c>
+      <c r="AU15" t="n">
+        <v>-0.7815784028111111</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>-1005.497224666667</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>-1005.497224666667</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>-191.3080057527778</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>-191.2544131972222</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>-8.276771115555555</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>-834.8091959999999</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>-9.763901497499999</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>-193.8050418055556</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>-219.5644461111111</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>-0.29906883175</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>-1373.937198111111</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>-516.1009507333332</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>-1514.447390944444</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>-745.9224552722222</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>-515.5377729666667</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>-936.6832955555556</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>-1386.958884277778</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>-1837.714507333334</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>-491.7413121666667</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>-916.8122283888888</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>-1369.912740138889</v>
+      </c>
+      <c r="BQ15" t="n">
+        <v>-1823.587381916667</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Average MW</t>
+        </is>
+      </c>
+      <c r="B16" s="1" t="n"/>
+      <c r="C16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="I16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="J16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="K16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="L16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="M16" s="1" t="n">
+        <v>11.316</v>
+      </c>
+      <c r="N16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="P16" s="1" t="n">
+        <v>32.0438</v>
+      </c>
+      <c r="Q16" s="1" t="n">
+        <v>9.97818</v>
+      </c>
+      <c r="R16" s="1" t="n">
+        <v>9.97818</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <v>9.97818</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="U16" s="1" t="n">
+        <v>29.5222</v>
+      </c>
+      <c r="V16" s="1" t="n">
+        <v>11.316</v>
+      </c>
+      <c r="W16" s="1" t="n">
+        <v>11.316</v>
+      </c>
+      <c r="X16" s="1" t="n">
+        <v>18.0211</v>
+      </c>
+      <c r="Y16" s="1" t="n">
+        <v>11.3072</v>
+      </c>
+      <c r="Z16" s="1" t="n">
+        <v>11.3072</v>
+      </c>
+      <c r="AA16" s="1" t="n">
+        <v>9.656510000000001</v>
+      </c>
+      <c r="AB16" s="1" t="n">
+        <v>9.656510000000001</v>
+      </c>
+      <c r="AC16" s="1" t="n">
+        <v>9.97818</v>
+      </c>
+      <c r="AD16" s="1" t="n">
+        <v>12.1175</v>
+      </c>
+      <c r="AE16" s="1" t="n">
+        <v>11.2505</v>
+      </c>
+      <c r="AF16" s="1" t="n">
+        <v>11.2507</v>
+      </c>
+      <c r="AG16" s="1" t="n">
+        <v>11.2507</v>
+      </c>
+      <c r="AH16" s="1" t="n">
+        <v>9.656510000000001</v>
+      </c>
+      <c r="AI16" s="1" t="n">
+        <v>29.5222</v>
+      </c>
+      <c r="AJ16" s="1" t="n">
+        <v>9.656510000000001</v>
+      </c>
+      <c r="AK16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="AL16" s="1" t="n">
+        <v>9.541359999999999</v>
+      </c>
+      <c r="AM16" s="1" t="n">
+        <v>9.541359999999999</v>
+      </c>
+      <c r="AN16" s="1" t="n">
+        <v>9.541359999999999</v>
+      </c>
+      <c r="AO16" s="1" t="n">
+        <v>18.1035</v>
+      </c>
+      <c r="AP16" s="1" t="n">
+        <v>30.1598</v>
+      </c>
+      <c r="AQ16" s="1" t="n">
+        <v>28.2285</v>
+      </c>
+      <c r="AR16" s="1" t="n">
+        <v>28.1979</v>
+      </c>
+      <c r="AS16" s="1" t="n">
+        <v>28.1979</v>
+      </c>
+      <c r="AT16" s="1" t="n">
+        <v>28.1979</v>
+      </c>
+      <c r="AU16" s="1" t="n">
+        <v>40.1923</v>
+      </c>
+      <c r="AV16" s="1" t="n">
+        <v>28.1433</v>
+      </c>
+      <c r="AW16" s="1" t="n">
+        <v>28.1433</v>
+      </c>
+      <c r="AX16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="AY16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="AZ16" s="1" t="n">
+        <v>22.5166</v>
+      </c>
+      <c r="BA16" s="1" t="n">
+        <v>32.0438</v>
+      </c>
+      <c r="BB16" s="1" t="n">
+        <v>12.9203</v>
+      </c>
+      <c r="BC16" s="1" t="n">
+        <v>18.0154</v>
+      </c>
+      <c r="BD16" s="1" t="n">
+        <v>18.0154</v>
+      </c>
+      <c r="BE16" s="1" t="n">
+        <v>39.2532</v>
+      </c>
+      <c r="BF16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="BG16" s="1" t="n">
+        <v>18.0153</v>
+      </c>
+      <c r="BH16" s="1" t="n">
+        <v>9.97818</v>
+      </c>
+      <c r="BI16" s="1" t="n">
+        <v>9.97818</v>
+      </c>
+      <c r="BJ16" s="1" t="n">
+        <v>9.97818</v>
+      </c>
+      <c r="BK16" s="1" t="n">
+        <v>10.4477</v>
+      </c>
+      <c r="BL16" s="1" t="n">
+        <v>10.7106</v>
+      </c>
+      <c r="BM16" s="1" t="n">
+        <v>10.8822</v>
+      </c>
+      <c r="BN16" s="1" t="n">
+        <v>10.7772</v>
+      </c>
+      <c r="BO16" s="1" t="n">
+        <v>11.05</v>
+      </c>
+      <c r="BP16" s="1" t="n">
+        <v>11.181</v>
+      </c>
+      <c r="BQ16" s="1" t="n">
+        <v>11.2505</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>Mole Flows</t>
+        </is>
+      </c>
+      <c r="B17" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>2862240</v>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>2862240</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G17" s="2" t="n">
+        <v>1387710</v>
+      </c>
+      <c r="H17" s="2" t="n">
+        <v>1387710</v>
+      </c>
+      <c r="I17" s="1" t="n">
+        <v>555084</v>
+      </c>
+      <c r="J17" s="1" t="n">
+        <v>555084</v>
+      </c>
+      <c r="K17" s="1" t="n">
+        <v>51354</v>
+      </c>
+      <c r="L17" s="1" t="n">
+        <v>51354</v>
+      </c>
+      <c r="M17" s="1" t="n">
+        <v>44538.9</v>
+      </c>
+      <c r="N17" s="1" t="n">
+        <v>462.996</v>
+      </c>
+      <c r="O17" s="1" t="n">
+        <v>462.996</v>
+      </c>
+      <c r="P17" s="1" t="n">
+        <v>12780.3</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>48937.3</v>
+      </c>
+      <c r="R17" s="1" t="n">
+        <v>51995.9</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>51995.9</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>37445.2</v>
+      </c>
+      <c r="U17" s="1" t="n">
+        <v>16245.4</v>
+      </c>
+      <c r="V17" s="1" t="n">
+        <v>44538.9</v>
+      </c>
+      <c r="W17" s="1" t="n">
+        <v>44538.9</v>
+      </c>
+      <c r="X17" s="1" t="n">
+        <v>58.1737</v>
+      </c>
+      <c r="Y17" s="1" t="n">
+        <v>44480.7</v>
+      </c>
+      <c r="Z17" s="1" t="n">
+        <v>44480.7</v>
+      </c>
+      <c r="AA17" s="1" t="n">
+        <v>183772</v>
+      </c>
+      <c r="AB17" s="1" t="n">
+        <v>183772</v>
+      </c>
+      <c r="AC17" s="1" t="n">
+        <v>228252</v>
+      </c>
+      <c r="AD17" s="1" t="n">
+        <v>2752.45</v>
+      </c>
+      <c r="AE17" s="1" t="n">
+        <v>202439</v>
+      </c>
+      <c r="AF17" s="1" t="n">
+        <v>202438</v>
+      </c>
+      <c r="AG17" s="1" t="n">
+        <v>202438</v>
+      </c>
+      <c r="AH17" s="1" t="n">
+        <v>186192</v>
+      </c>
+      <c r="AI17" s="1" t="n">
+        <v>16245.4</v>
+      </c>
+      <c r="AJ17" s="1" t="n">
+        <v>2420.5</v>
+      </c>
+      <c r="AK17" s="1" t="n">
+        <v>1998.3</v>
+      </c>
+      <c r="AL17" s="1" t="n">
+        <v>2408.54</v>
+      </c>
+      <c r="AM17" s="1" t="n">
+        <v>2408.54</v>
+      </c>
+      <c r="AN17" s="1" t="n">
+        <v>2408.54</v>
+      </c>
+      <c r="AO17" s="1" t="n">
+        <v>2010.26</v>
+      </c>
+      <c r="AP17" s="1" t="n">
+        <v>343.904</v>
+      </c>
+      <c r="AQ17" s="1" t="n">
+        <v>17911.7</v>
+      </c>
+      <c r="AR17" s="1" t="n">
+        <v>17862.3</v>
+      </c>
+      <c r="AS17" s="1" t="n">
+        <v>17862.3</v>
+      </c>
+      <c r="AT17" s="1" t="n">
+        <v>17862.3</v>
+      </c>
+      <c r="AU17" s="1" t="n">
+        <v>81.0236</v>
+      </c>
+      <c r="AV17" s="1" t="n">
+        <v>17781.2</v>
+      </c>
+      <c r="AW17" s="1" t="n">
+        <v>17781.2</v>
+      </c>
+      <c r="AX17" s="1" t="n">
+        <v>4823.33</v>
+      </c>
+      <c r="AY17" s="1" t="n">
+        <v>4823.33</v>
+      </c>
+      <c r="AZ17" s="1" t="n">
+        <v>177.647</v>
+      </c>
+      <c r="BA17" s="1" t="n">
+        <v>12780.3</v>
+      </c>
+      <c r="BB17" s="1" t="n">
+        <v>2833.47</v>
+      </c>
+      <c r="BC17" s="1" t="n">
+        <v>4881.5</v>
+      </c>
+      <c r="BD17" s="1" t="n">
+        <v>4881.5</v>
+      </c>
+      <c r="BE17" s="1" t="n">
+        <v>49.4533</v>
+      </c>
+      <c r="BF17" s="1" t="n">
+        <v>37445.2</v>
+      </c>
+      <c r="BG17" s="1" t="n">
+        <v>37445.2</v>
+      </c>
+      <c r="BH17" s="1" t="n">
+        <v>152929</v>
+      </c>
+      <c r="BI17" s="1" t="n">
+        <v>75323.3</v>
+      </c>
+      <c r="BJ17" s="1" t="n">
+        <v>75323.3</v>
+      </c>
+      <c r="BK17" s="1" t="n">
+        <v>118676</v>
+      </c>
+      <c r="BL17" s="1" t="n">
+        <v>164203</v>
+      </c>
+      <c r="BM17" s="1" t="n">
+        <v>209291</v>
+      </c>
+      <c r="BN17" s="1" t="n">
+        <v>69739</v>
+      </c>
+      <c r="BO17" s="1" t="n">
+        <v>112207</v>
+      </c>
+      <c r="BP17" s="1" t="n">
+        <v>157295</v>
+      </c>
+      <c r="BQ17" s="1" t="n">
+        <v>202439</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" s="1" t="n">
+        <v>30259.7</v>
+      </c>
+      <c r="N18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1" t="n">
+        <v>31127.8</v>
+      </c>
+      <c r="R18" s="1" t="n">
+        <v>33073.3</v>
+      </c>
+      <c r="S18" s="1" t="n">
+        <v>33073.3</v>
+      </c>
+      <c r="T18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="n">
+        <v>35.4021</v>
+      </c>
+      <c r="V18" s="1" t="n">
+        <v>30259.7</v>
+      </c>
+      <c r="W18" s="1" t="n">
+        <v>30259.7</v>
+      </c>
+      <c r="X18" s="1" t="n">
+        <v>0.00092816</v>
+      </c>
+      <c r="Y18" s="1" t="n">
+        <v>30259.7</v>
+      </c>
+      <c r="Z18" s="1" t="n">
+        <v>30259.7</v>
+      </c>
+      <c r="AA18" s="1" t="n">
+        <v>114926</v>
+      </c>
+      <c r="AB18" s="1" t="n">
+        <v>114926</v>
+      </c>
+      <c r="AC18" s="1" t="n">
+        <v>145186</v>
+      </c>
+      <c r="AD18" s="1" t="n">
+        <v>1548.97</v>
+      </c>
+      <c r="AE18" s="1" t="n">
+        <v>116477</v>
+      </c>
+      <c r="AF18" s="1" t="n">
+        <v>116475</v>
+      </c>
+      <c r="AG18" s="1" t="n">
+        <v>116475</v>
+      </c>
+      <c r="AH18" s="1" t="n">
+        <v>116440</v>
+      </c>
+      <c r="AI18" s="1" t="n">
+        <v>35.4021</v>
+      </c>
+      <c r="AJ18" s="1" t="n">
+        <v>1513.72</v>
+      </c>
+      <c r="AK18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="1" t="n">
+        <v>1513.68</v>
+      </c>
+      <c r="AM18" s="1" t="n">
+        <v>1513.68</v>
+      </c>
+      <c r="AN18" s="1" t="n">
+        <v>1513.68</v>
+      </c>
+      <c r="AO18" s="1" t="n">
+        <v>0.0376194</v>
+      </c>
+      <c r="AP18" s="1" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="AQ18" s="1" t="n">
+        <v>0.149737</v>
+      </c>
+      <c r="AR18" s="1" t="n">
+        <v>0.00181404</v>
+      </c>
+      <c r="AS18" s="1" t="n">
+        <v>0.00181404</v>
+      </c>
+      <c r="AT18" s="1" t="n">
+        <v>0.00181404</v>
+      </c>
+      <c r="AU18" s="1" t="n">
+        <v>0.00181404</v>
+      </c>
+      <c r="AV18" s="2" t="n">
+        <v>1.99606e-45</v>
+      </c>
+      <c r="AW18" s="2" t="n">
+        <v>1.99606e-45</v>
+      </c>
+      <c r="AX18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB18" s="1" t="n">
+        <v>1548.97</v>
+      </c>
+      <c r="BC18" s="1" t="n">
+        <v>0.00092816</v>
+      </c>
+      <c r="BD18" s="1" t="n">
+        <v>0.00092816</v>
+      </c>
+      <c r="BE18" s="1" t="n">
+        <v>0.147923</v>
+      </c>
+      <c r="BF18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH18" s="1" t="n">
+        <v>97274.39999999999</v>
+      </c>
+      <c r="BI18" s="1" t="n">
+        <v>47911.3</v>
+      </c>
+      <c r="BJ18" s="1" t="n">
+        <v>47911.3</v>
+      </c>
+      <c r="BK18" s="1" t="n">
+        <v>72604.60000000001</v>
+      </c>
+      <c r="BL18" s="1" t="n">
+        <v>98594.10000000001</v>
+      </c>
+      <c r="BM18" s="1" t="n">
+        <v>124050</v>
+      </c>
+      <c r="BN18" s="1" t="n">
+        <v>41476.8</v>
+      </c>
+      <c r="BO18" s="1" t="n">
+        <v>65520.8</v>
+      </c>
+      <c r="BP18" s="1" t="n">
+        <v>90976.8</v>
+      </c>
+      <c r="BQ18" s="1" t="n">
+        <v>116477</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" s="1" t="n">
+        <v>142.792</v>
+      </c>
+      <c r="N19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1" t="n">
+        <v>2274.15</v>
+      </c>
+      <c r="R19" s="1" t="n">
+        <v>2416.29</v>
+      </c>
+      <c r="S19" s="1" t="n">
+        <v>2416.29</v>
+      </c>
+      <c r="T19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="n">
+        <v>4.96298</v>
+      </c>
+      <c r="V19" s="1" t="n">
+        <v>142.792</v>
+      </c>
+      <c r="W19" s="1" t="n">
+        <v>142.792</v>
+      </c>
+      <c r="X19" s="2" t="n">
+        <v>1.04467e-06</v>
+      </c>
+      <c r="Y19" s="1" t="n">
+        <v>142.792</v>
+      </c>
+      <c r="Z19" s="1" t="n">
+        <v>142.792</v>
+      </c>
+      <c r="AA19" s="1" t="n">
+        <v>10464.3</v>
+      </c>
+      <c r="AB19" s="1" t="n">
+        <v>10464.3</v>
+      </c>
+      <c r="AC19" s="1" t="n">
+        <v>10607</v>
+      </c>
+      <c r="AD19" s="1" t="n">
+        <v>142.759</v>
+      </c>
+      <c r="AE19" s="1" t="n">
+        <v>10607</v>
+      </c>
+      <c r="AF19" s="1" t="n">
+        <v>10607</v>
+      </c>
+      <c r="AG19" s="1" t="n">
+        <v>10607</v>
+      </c>
+      <c r="AH19" s="1" t="n">
+        <v>10602.1</v>
+      </c>
+      <c r="AI19" s="1" t="n">
+        <v>4.96298</v>
+      </c>
+      <c r="AJ19" s="1" t="n">
+        <v>137.827</v>
+      </c>
+      <c r="AK19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="1" t="n">
+        <v>137.826</v>
+      </c>
+      <c r="AM19" s="1" t="n">
+        <v>137.826</v>
+      </c>
+      <c r="AN19" s="1" t="n">
+        <v>137.826</v>
+      </c>
+      <c r="AO19" s="1" t="n">
+        <v>0.000787459</v>
+      </c>
+      <c r="AP19" s="1" t="n">
+        <v>4.93242</v>
+      </c>
+      <c r="AQ19" s="1" t="n">
+        <v>0.0313479</v>
+      </c>
+      <c r="AR19" s="1" t="n">
+        <v>0.000566571</v>
+      </c>
+      <c r="AS19" s="1" t="n">
+        <v>0.000566571</v>
+      </c>
+      <c r="AT19" s="1" t="n">
+        <v>0.000566571</v>
+      </c>
+      <c r="AU19" s="1" t="n">
+        <v>0.000566572</v>
+      </c>
+      <c r="AV19" s="2" t="n">
+        <v>7.48964e-44</v>
+      </c>
+      <c r="AW19" s="2" t="n">
+        <v>7.48964e-44</v>
+      </c>
+      <c r="AX19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB19" s="1" t="n">
+        <v>142.759</v>
+      </c>
+      <c r="BC19" s="2" t="n">
+        <v>1.04467e-06</v>
+      </c>
+      <c r="BD19" s="2" t="n">
+        <v>1.04467e-06</v>
+      </c>
+      <c r="BE19" s="1" t="n">
+        <v>0.0307813</v>
+      </c>
+      <c r="BF19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH19" s="1" t="n">
+        <v>7106.72</v>
+      </c>
+      <c r="BI19" s="1" t="n">
+        <v>3500.33</v>
+      </c>
+      <c r="BJ19" s="1" t="n">
+        <v>3500.33</v>
+      </c>
+      <c r="BK19" s="1" t="n">
+        <v>5774.48</v>
+      </c>
+      <c r="BL19" s="1" t="n">
+        <v>8190.76</v>
+      </c>
+      <c r="BM19" s="1" t="n">
+        <v>10607</v>
+      </c>
+      <c r="BN19" s="1" t="n">
+        <v>3500.33</v>
+      </c>
+      <c r="BO19" s="1" t="n">
+        <v>5774.48</v>
+      </c>
+      <c r="BP19" s="1" t="n">
+        <v>8190.76</v>
+      </c>
+      <c r="BQ19" s="1" t="n">
+        <v>10607</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" s="1" t="n">
+        <v>10067.7</v>
+      </c>
+      <c r="N20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1" t="n">
+        <v>3044.38</v>
+      </c>
+      <c r="R20" s="1" t="n">
+        <v>3234.65</v>
+      </c>
+      <c r="S20" s="1" t="n">
+        <v>3234.65</v>
+      </c>
+      <c r="T20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="n">
+        <v>2.13795</v>
+      </c>
+      <c r="V20" s="1" t="n">
+        <v>10067.7</v>
+      </c>
+      <c r="W20" s="1" t="n">
+        <v>10067.7</v>
+      </c>
+      <c r="X20" s="2" t="n">
+        <v>7.635399999999999e-05</v>
+      </c>
+      <c r="Y20" s="1" t="n">
+        <v>10067.7</v>
+      </c>
+      <c r="Z20" s="1" t="n">
+        <v>10067.7</v>
+      </c>
+      <c r="AA20" s="1" t="n">
+        <v>4131.82</v>
+      </c>
+      <c r="AB20" s="1" t="n">
+        <v>4131.82</v>
+      </c>
+      <c r="AC20" s="1" t="n">
+        <v>14199.5</v>
+      </c>
+      <c r="AD20" s="1" t="n">
+        <v>56.5443</v>
+      </c>
+      <c r="AE20" s="1" t="n">
+        <v>4188.17</v>
+      </c>
+      <c r="AF20" s="1" t="n">
+        <v>4188.38</v>
+      </c>
+      <c r="AG20" s="1" t="n">
+        <v>4188.38</v>
+      </c>
+      <c r="AH20" s="1" t="n">
+        <v>4186.24</v>
+      </c>
+      <c r="AI20" s="1" t="n">
+        <v>2.13795</v>
+      </c>
+      <c r="AJ20" s="1" t="n">
+        <v>54.4211</v>
+      </c>
+      <c r="AK20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="1" t="n">
+        <v>54.4208</v>
+      </c>
+      <c r="AM20" s="1" t="n">
+        <v>54.4208</v>
+      </c>
+      <c r="AN20" s="1" t="n">
+        <v>54.4208</v>
+      </c>
+      <c r="AO20" s="1" t="n">
+        <v>0.000322181</v>
+      </c>
+      <c r="AP20" s="1" t="n">
+        <v>2.12349</v>
+      </c>
+      <c r="AQ20" s="1" t="n">
+        <v>0.014775</v>
+      </c>
+      <c r="AR20" s="1" t="n">
+        <v>0.000291951</v>
+      </c>
+      <c r="AS20" s="1" t="n">
+        <v>0.000291951</v>
+      </c>
+      <c r="AT20" s="1" t="n">
+        <v>0.000291951</v>
+      </c>
+      <c r="AU20" s="1" t="n">
+        <v>0.000291951</v>
+      </c>
+      <c r="AV20" s="2" t="n">
+        <v>9.714750000000001e-44</v>
+      </c>
+      <c r="AW20" s="2" t="n">
+        <v>9.714750000000001e-44</v>
+      </c>
+      <c r="AX20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB20" s="1" t="n">
+        <v>56.5446</v>
+      </c>
+      <c r="BC20" s="2" t="n">
+        <v>7.635399999999999e-05</v>
+      </c>
+      <c r="BD20" s="2" t="n">
+        <v>7.635399999999999e-05</v>
+      </c>
+      <c r="BE20" s="1" t="n">
+        <v>0.014483</v>
+      </c>
+      <c r="BF20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH20" s="1" t="n">
+        <v>9513.68</v>
+      </c>
+      <c r="BI20" s="1" t="n">
+        <v>4685.84</v>
+      </c>
+      <c r="BJ20" s="1" t="n">
+        <v>4685.84</v>
+      </c>
+      <c r="BK20" s="1" t="n">
+        <v>5788.29</v>
+      </c>
+      <c r="BL20" s="1" t="n">
+        <v>6403.13</v>
+      </c>
+      <c r="BM20" s="1" t="n">
+        <v>6893.51</v>
+      </c>
+      <c r="BN20" s="1" t="n">
+        <v>2743.91</v>
+      </c>
+      <c r="BO20" s="1" t="n">
+        <v>3168.48</v>
+      </c>
+      <c r="BP20" s="1" t="n">
+        <v>3658.86</v>
+      </c>
+      <c r="BQ20" s="1" t="n">
+        <v>4188.17</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="1" t="n">
+        <v>3272</v>
+      </c>
+      <c r="N21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1" t="n">
+        <v>2609.04</v>
+      </c>
+      <c r="R21" s="1" t="n">
+        <v>2772.11</v>
+      </c>
+      <c r="S21" s="1" t="n">
+        <v>2772.11</v>
+      </c>
+      <c r="T21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="n">
+        <v>260.122</v>
+      </c>
+      <c r="V21" s="1" t="n">
+        <v>3272</v>
+      </c>
+      <c r="W21" s="1" t="n">
+        <v>3272</v>
+      </c>
+      <c r="X21" s="1" t="n">
+        <v>0.0135877</v>
+      </c>
+      <c r="Y21" s="1" t="n">
+        <v>3271.99</v>
+      </c>
+      <c r="Z21" s="1" t="n">
+        <v>3271.99</v>
+      </c>
+      <c r="AA21" s="1" t="n">
+        <v>8897.049999999999</v>
+      </c>
+      <c r="AB21" s="1" t="n">
+        <v>8897.049999999999</v>
+      </c>
+      <c r="AC21" s="1" t="n">
+        <v>12169</v>
+      </c>
+      <c r="AD21" s="1" t="n">
+        <v>287.199</v>
+      </c>
+      <c r="AE21" s="1" t="n">
+        <v>9273.860000000001</v>
+      </c>
+      <c r="AF21" s="1" t="n">
+        <v>9274.360000000001</v>
+      </c>
+      <c r="AG21" s="1" t="n">
+        <v>9274.360000000001</v>
+      </c>
+      <c r="AH21" s="1" t="n">
+        <v>9014.24</v>
+      </c>
+      <c r="AI21" s="1" t="n">
+        <v>260.122</v>
+      </c>
+      <c r="AJ21" s="1" t="n">
+        <v>117.185</v>
+      </c>
+      <c r="AK21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="1" t="n">
+        <v>116.778</v>
+      </c>
+      <c r="AM21" s="1" t="n">
+        <v>116.778</v>
+      </c>
+      <c r="AN21" s="1" t="n">
+        <v>116.778</v>
+      </c>
+      <c r="AO21" s="1" t="n">
+        <v>0.406691</v>
+      </c>
+      <c r="AP21" s="1" t="n">
+        <v>170.421</v>
+      </c>
+      <c r="AQ21" s="1" t="n">
+        <v>90.10760000000001</v>
+      </c>
+      <c r="AR21" s="1" t="n">
+        <v>54.8836</v>
+      </c>
+      <c r="AS21" s="1" t="n">
+        <v>54.8836</v>
+      </c>
+      <c r="AT21" s="1" t="n">
+        <v>54.8836</v>
+      </c>
+      <c r="AU21" s="1" t="n">
+        <v>54.8837</v>
+      </c>
+      <c r="AV21" s="2" t="n">
+        <v>7.35538e-20</v>
+      </c>
+      <c r="AW21" s="2" t="n">
+        <v>7.35538e-20</v>
+      </c>
+      <c r="AX21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB21" s="1" t="n">
+        <v>342.083</v>
+      </c>
+      <c r="BC21" s="1" t="n">
+        <v>0.0135877</v>
+      </c>
+      <c r="BD21" s="1" t="n">
+        <v>0.0135877</v>
+      </c>
+      <c r="BE21" s="1" t="n">
+        <v>35.224</v>
+      </c>
+      <c r="BF21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG21" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH21" s="1" t="n">
+        <v>8153.26</v>
+      </c>
+      <c r="BI21" s="1" t="n">
+        <v>4015.78</v>
+      </c>
+      <c r="BJ21" s="1" t="n">
+        <v>4015.78</v>
+      </c>
+      <c r="BK21" s="1" t="n">
+        <v>5774.61</v>
+      </c>
+      <c r="BL21" s="1" t="n">
+        <v>7931.99</v>
+      </c>
+      <c r="BM21" s="1" t="n">
+        <v>9994.52</v>
+      </c>
+      <c r="BN21" s="1" t="n">
+        <v>3165.57</v>
+      </c>
+      <c r="BO21" s="1" t="n">
+        <v>5159.88</v>
+      </c>
+      <c r="BP21" s="1" t="n">
+        <v>7222.41</v>
+      </c>
+      <c r="BQ21" s="1" t="n">
+        <v>9273.860000000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>2862240</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>2862240</v>
+      </c>
+      <c r="E22" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="F22" s="1" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G22" s="2" t="n">
+        <v>1387710</v>
+      </c>
+      <c r="H22" s="2" t="n">
+        <v>1387710</v>
+      </c>
+      <c r="I22" s="1" t="n">
+        <v>555084</v>
+      </c>
+      <c r="J22" s="1" t="n">
+        <v>555084</v>
+      </c>
+      <c r="K22" s="1" t="n">
+        <v>51354</v>
+      </c>
+      <c r="L22" s="1" t="n">
+        <v>51354</v>
+      </c>
+      <c r="M22" s="1" t="n">
+        <v>111.018</v>
+      </c>
+      <c r="N22" s="1" t="n">
+        <v>462.996</v>
+      </c>
+      <c r="O22" s="1" t="n">
+        <v>462.996</v>
+      </c>
+      <c r="P22" s="1" t="n">
+        <v>0.0137942</v>
+      </c>
+      <c r="Q22" s="1" t="n">
+        <v>22.8482</v>
+      </c>
+      <c r="R22" s="1" t="n">
+        <v>24.2762</v>
+      </c>
+      <c r="S22" s="1" t="n">
+        <v>24.2762</v>
+      </c>
+      <c r="T22" s="1" t="n">
+        <v>37445.2</v>
+      </c>
+      <c r="U22" s="1" t="n">
+        <v>2961</v>
+      </c>
+      <c r="V22" s="1" t="n">
+        <v>111.018</v>
+      </c>
+      <c r="W22" s="1" t="n">
+        <v>111.018</v>
+      </c>
+      <c r="X22" s="1" t="n">
+        <v>58.159</v>
+      </c>
+      <c r="Y22" s="1" t="n">
+        <v>52.8586</v>
+      </c>
+      <c r="Z22" s="1" t="n">
+        <v>52.8586</v>
+      </c>
+      <c r="AA22" s="1" t="n">
+        <v>53.7094</v>
+      </c>
+      <c r="AB22" s="1" t="n">
+        <v>53.7094</v>
+      </c>
+      <c r="AC22" s="1" t="n">
+        <v>106.568</v>
+      </c>
+      <c r="AD22" s="1" t="n">
+        <v>4.1523</v>
+      </c>
+      <c r="AE22" s="1" t="n">
+        <v>3015.41</v>
+      </c>
+      <c r="AF22" s="1" t="n">
+        <v>3015.42</v>
+      </c>
+      <c r="AG22" s="1" t="n">
+        <v>3015.42</v>
+      </c>
+      <c r="AH22" s="1" t="n">
+        <v>54.4168</v>
+      </c>
+      <c r="AI22" s="1" t="n">
+        <v>2961</v>
+      </c>
+      <c r="AJ22" s="1" t="n">
+        <v>0.707418</v>
+      </c>
+      <c r="AK22" s="1" t="n">
+        <v>1998.3</v>
+      </c>
+      <c r="AL22" s="1" t="n">
+        <v>1.15731</v>
+      </c>
+      <c r="AM22" s="1" t="n">
+        <v>1.15731</v>
+      </c>
+      <c r="AN22" s="1" t="n">
+        <v>1.15731</v>
+      </c>
+      <c r="AO22" s="1" t="n">
+        <v>1997.85</v>
+      </c>
+      <c r="AP22" s="1" t="n">
+        <v>2.99499</v>
+      </c>
+      <c r="AQ22" s="1" t="n">
+        <v>4955.86</v>
+      </c>
+      <c r="AR22" s="1" t="n">
+        <v>4954.87</v>
+      </c>
+      <c r="AS22" s="1" t="n">
+        <v>4954.87</v>
+      </c>
+      <c r="AT22" s="1" t="n">
+        <v>4954.87</v>
+      </c>
+      <c r="AU22" s="2" t="n">
+        <v>3.50952e-06</v>
+      </c>
+      <c r="AV22" s="1" t="n">
+        <v>4954.87</v>
+      </c>
+      <c r="AW22" s="1" t="n">
+        <v>4954.87</v>
+      </c>
+      <c r="AX22" s="1" t="n">
+        <v>4823.33</v>
+      </c>
+      <c r="AY22" s="1" t="n">
+        <v>4823.33</v>
+      </c>
+      <c r="AZ22" s="1" t="n">
+        <v>131.531</v>
+      </c>
+      <c r="BA22" s="1" t="n">
+        <v>0.0137942</v>
+      </c>
+      <c r="BB22" s="1" t="n">
+        <v>4.1523</v>
+      </c>
+      <c r="BC22" s="1" t="n">
+        <v>4881.49</v>
+      </c>
+      <c r="BD22" s="1" t="n">
+        <v>4881.49</v>
+      </c>
+      <c r="BE22" s="1" t="n">
+        <v>0.985494</v>
+      </c>
+      <c r="BF22" s="1" t="n">
+        <v>37445.2</v>
+      </c>
+      <c r="BG22" s="1" t="n">
+        <v>37445.2</v>
+      </c>
+      <c r="BH22" s="1" t="n">
+        <v>71.40049999999999</v>
+      </c>
+      <c r="BI22" s="1" t="n">
+        <v>35.1674</v>
+      </c>
+      <c r="BJ22" s="1" t="n">
+        <v>35.1674</v>
+      </c>
+      <c r="BK22" s="1" t="n">
+        <v>916.075</v>
+      </c>
+      <c r="BL22" s="1" t="n">
+        <v>1556.82</v>
+      </c>
+      <c r="BM22" s="1" t="n">
+        <v>2292.71</v>
+      </c>
+      <c r="BN22" s="1" t="n">
+        <v>893.227</v>
+      </c>
+      <c r="BO22" s="1" t="n">
+        <v>1532.54</v>
+      </c>
+      <c r="BP22" s="1" t="n">
+        <v>2268.43</v>
+      </c>
+      <c r="BQ22" s="1" t="n">
+        <v>3015.41</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="1" t="n">
+        <v>685.676</v>
+      </c>
+      <c r="N23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1" t="n">
+        <v>9662.77</v>
+      </c>
+      <c r="R23" s="1" t="n">
+        <v>10266.7</v>
+      </c>
+      <c r="S23" s="1" t="n">
+        <v>10266.7</v>
+      </c>
+      <c r="T23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1" t="n">
+        <v>100.915</v>
+      </c>
+      <c r="V23" s="1" t="n">
+        <v>685.676</v>
+      </c>
+      <c r="W23" s="1" t="n">
+        <v>685.676</v>
+      </c>
+      <c r="X23" s="2" t="n">
+        <v>3.97185e-05</v>
+      </c>
+      <c r="Y23" s="1" t="n">
+        <v>685.676</v>
+      </c>
+      <c r="Z23" s="1" t="n">
+        <v>685.676</v>
+      </c>
+      <c r="AA23" s="1" t="n">
+        <v>44383.2</v>
+      </c>
+      <c r="AB23" s="1" t="n">
+        <v>44383.2</v>
+      </c>
+      <c r="AC23" s="1" t="n">
+        <v>45068.9</v>
+      </c>
+      <c r="AD23" s="1" t="n">
+        <v>682.197</v>
+      </c>
+      <c r="AE23" s="1" t="n">
+        <v>45068.9</v>
+      </c>
+      <c r="AF23" s="1" t="n">
+        <v>45068.7</v>
+      </c>
+      <c r="AG23" s="1" t="n">
+        <v>45068.7</v>
+      </c>
+      <c r="AH23" s="1" t="n">
+        <v>44967.8</v>
+      </c>
+      <c r="AI23" s="1" t="n">
+        <v>100.915</v>
+      </c>
+      <c r="AJ23" s="1" t="n">
+        <v>584.581</v>
+      </c>
+      <c r="AK23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="1" t="n">
+        <v>584.5549999999999</v>
+      </c>
+      <c r="AM23" s="1" t="n">
+        <v>584.5549999999999</v>
+      </c>
+      <c r="AN23" s="1" t="n">
+        <v>584.5549999999999</v>
+      </c>
+      <c r="AO23" s="1" t="n">
+        <v>0.0264718</v>
+      </c>
+      <c r="AP23" s="1" t="n">
+        <v>97.64230000000001</v>
+      </c>
+      <c r="AQ23" s="1" t="n">
+        <v>3.29966</v>
+      </c>
+      <c r="AR23" s="1" t="n">
+        <v>0.295724</v>
+      </c>
+      <c r="AS23" s="1" t="n">
+        <v>0.295724</v>
+      </c>
+      <c r="AT23" s="1" t="n">
+        <v>0.295724</v>
+      </c>
+      <c r="AU23" s="1" t="n">
+        <v>0.295725</v>
+      </c>
+      <c r="AV23" s="2" t="n">
+        <v>2.05071e-33</v>
+      </c>
+      <c r="AW23" s="2" t="n">
+        <v>2.05071e-33</v>
+      </c>
+      <c r="AX23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB23" s="1" t="n">
+        <v>682.4930000000001</v>
+      </c>
+      <c r="BC23" s="2" t="n">
+        <v>3.97185e-05</v>
+      </c>
+      <c r="BD23" s="2" t="n">
+        <v>3.97185e-05</v>
+      </c>
+      <c r="BE23" s="1" t="n">
+        <v>3.00394</v>
+      </c>
+      <c r="BF23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG23" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH23" s="1" t="n">
+        <v>30196.2</v>
+      </c>
+      <c r="BI23" s="1" t="n">
+        <v>14872.7</v>
+      </c>
+      <c r="BJ23" s="1" t="n">
+        <v>14872.7</v>
+      </c>
+      <c r="BK23" s="1" t="n">
+        <v>24535.5</v>
+      </c>
+      <c r="BL23" s="1" t="n">
+        <v>34802.2</v>
+      </c>
+      <c r="BM23" s="1" t="n">
+        <v>45068.9</v>
+      </c>
+      <c r="BN23" s="1" t="n">
+        <v>14872.7</v>
+      </c>
+      <c r="BO23" s="1" t="n">
+        <v>24535.5</v>
+      </c>
+      <c r="BP23" s="1" t="n">
+        <v>34802.2</v>
+      </c>
+      <c r="BQ23" s="1" t="n">
+        <v>45068.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>MEOH</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="1" t="n">
+        <v>12778.7</v>
+      </c>
+      <c r="Q24" s="1" t="n">
+        <v>194.074</v>
+      </c>
+      <c r="R24" s="1" t="n">
+        <v>206.203</v>
+      </c>
+      <c r="S24" s="1" t="n">
+        <v>206.203</v>
+      </c>
+      <c r="T24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1" t="n">
+        <v>12867.3</v>
+      </c>
+      <c r="V24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="1" t="n">
+        <v>905.194</v>
+      </c>
+      <c r="AB24" s="1" t="n">
+        <v>905.194</v>
+      </c>
+      <c r="AC24" s="1" t="n">
+        <v>905.194</v>
+      </c>
+      <c r="AD24" s="1" t="n">
+        <v>30.1142</v>
+      </c>
+      <c r="AE24" s="1" t="n">
+        <v>13784.4</v>
+      </c>
+      <c r="AF24" s="1" t="n">
+        <v>13784.4</v>
+      </c>
+      <c r="AG24" s="1" t="n">
+        <v>13784.4</v>
+      </c>
+      <c r="AH24" s="1" t="n">
+        <v>917.116</v>
+      </c>
+      <c r="AI24" s="1" t="n">
+        <v>12867.3</v>
+      </c>
+      <c r="AJ24" s="1" t="n">
+        <v>11.9225</v>
+      </c>
+      <c r="AK24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="2" t="n">
+        <v>5.16866e-18</v>
+      </c>
+      <c r="AM24" s="2" t="n">
+        <v>5.16866e-18</v>
+      </c>
+      <c r="AN24" s="2" t="n">
+        <v>5.16866e-18</v>
+      </c>
+      <c r="AO24" s="1" t="n">
+        <v>11.9225</v>
+      </c>
+      <c r="AP24" s="1" t="n">
+        <v>30.1142</v>
+      </c>
+      <c r="AQ24" s="1" t="n">
+        <v>12849.1</v>
+      </c>
+      <c r="AR24" s="1" t="n">
+        <v>12839.2</v>
+      </c>
+      <c r="AS24" s="1" t="n">
+        <v>12839.2</v>
+      </c>
+      <c r="AT24" s="1" t="n">
+        <v>12839.2</v>
+      </c>
+      <c r="AU24" s="1" t="n">
+        <v>25.2486</v>
+      </c>
+      <c r="AV24" s="1" t="n">
+        <v>12813.9</v>
+      </c>
+      <c r="AW24" s="1" t="n">
+        <v>12813.9</v>
+      </c>
+      <c r="AX24" s="1" t="n">
+        <v>0.00195293</v>
+      </c>
+      <c r="AY24" s="1" t="n">
+        <v>0.00195293</v>
+      </c>
+      <c r="AZ24" s="1" t="n">
+        <v>35.2242</v>
+      </c>
+      <c r="BA24" s="1" t="n">
+        <v>12778.7</v>
+      </c>
+      <c r="BB24" s="1" t="n">
+        <v>55.3629</v>
+      </c>
+      <c r="BC24" s="1" t="n">
+        <v>0.00195293</v>
+      </c>
+      <c r="BD24" s="1" t="n">
+        <v>0.00195293</v>
+      </c>
+      <c r="BE24" s="1" t="n">
+        <v>9.93491</v>
+      </c>
+      <c r="BF24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG24" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH24" s="1" t="n">
+        <v>606.48</v>
+      </c>
+      <c r="BI24" s="1" t="n">
+        <v>298.714</v>
+      </c>
+      <c r="BJ24" s="1" t="n">
+        <v>298.714</v>
+      </c>
+      <c r="BK24" s="1" t="n">
+        <v>3269.24</v>
+      </c>
+      <c r="BL24" s="1" t="n">
+        <v>6706.51</v>
+      </c>
+      <c r="BM24" s="1" t="n">
+        <v>10362.5</v>
+      </c>
+      <c r="BN24" s="1" t="n">
+        <v>3075.16</v>
+      </c>
+      <c r="BO24" s="1" t="n">
+        <v>6500.31</v>
+      </c>
+      <c r="BP24" s="1" t="n">
+        <v>10156.3</v>
+      </c>
+      <c r="BQ24" s="1" t="n">
+        <v>13784.4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>ETOH</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="1" t="n">
+        <v>1.54672</v>
+      </c>
+      <c r="Q25" s="1" t="n">
+        <v>0.14455</v>
+      </c>
+      <c r="R25" s="1" t="n">
+        <v>0.153584</v>
+      </c>
+      <c r="S25" s="1" t="n">
+        <v>0.153584</v>
+      </c>
+      <c r="T25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="V25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA25" s="1" t="n">
+        <v>0.674206</v>
+      </c>
+      <c r="AB25" s="1" t="n">
+        <v>0.674206</v>
+      </c>
+      <c r="AC25" s="1" t="n">
+        <v>0.674206</v>
+      </c>
+      <c r="AD25" s="1" t="n">
+        <v>0.0223647</v>
+      </c>
+      <c r="AE25" s="1" t="n">
+        <v>13.1417</v>
+      </c>
+      <c r="AF25" s="1" t="n">
+        <v>13.1431</v>
+      </c>
+      <c r="AG25" s="1" t="n">
+        <v>13.1431</v>
+      </c>
+      <c r="AH25" s="1" t="n">
+        <v>0.683086</v>
+      </c>
+      <c r="AI25" s="1" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="AJ25" s="1" t="n">
+        <v>0.00888012</v>
+      </c>
+      <c r="AK25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL25" s="2" t="n">
+        <v>6.43557e-21</v>
+      </c>
+      <c r="AM25" s="2" t="n">
+        <v>6.43557e-21</v>
+      </c>
+      <c r="AN25" s="2" t="n">
+        <v>6.43557e-21</v>
+      </c>
+      <c r="AO25" s="1" t="n">
+        <v>0.00888012</v>
+      </c>
+      <c r="AP25" s="1" t="n">
+        <v>0.0223647</v>
+      </c>
+      <c r="AQ25" s="1" t="n">
+        <v>12.4465</v>
+      </c>
+      <c r="AR25" s="1" t="n">
+        <v>12.4391</v>
+      </c>
+      <c r="AS25" s="1" t="n">
+        <v>12.4391</v>
+      </c>
+      <c r="AT25" s="1" t="n">
+        <v>12.4391</v>
+      </c>
+      <c r="AU25" s="2" t="n">
+        <v>2.23859e-05</v>
+      </c>
+      <c r="AV25" s="1" t="n">
+        <v>12.4391</v>
+      </c>
+      <c r="AW25" s="1" t="n">
+        <v>12.4391</v>
+      </c>
+      <c r="AX25" s="1" t="n">
+        <v>0.000527853</v>
+      </c>
+      <c r="AY25" s="1" t="n">
+        <v>0.000527853</v>
+      </c>
+      <c r="AZ25" s="1" t="n">
+        <v>10.8919</v>
+      </c>
+      <c r="BA25" s="1" t="n">
+        <v>1.54672</v>
+      </c>
+      <c r="BB25" s="1" t="n">
+        <v>0.0223871</v>
+      </c>
+      <c r="BC25" s="1" t="n">
+        <v>0.000527853</v>
+      </c>
+      <c r="BD25" s="1" t="n">
+        <v>0.000527853</v>
+      </c>
+      <c r="BE25" s="1" t="n">
+        <v>0.00737455</v>
+      </c>
+      <c r="BF25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG25" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH25" s="1" t="n">
+        <v>0.451718</v>
+      </c>
+      <c r="BI25" s="1" t="n">
+        <v>0.222488</v>
+      </c>
+      <c r="BJ25" s="1" t="n">
+        <v>0.222488</v>
+      </c>
+      <c r="BK25" s="1" t="n">
+        <v>7.69357</v>
+      </c>
+      <c r="BL25" s="1" t="n">
+        <v>9.43981</v>
+      </c>
+      <c r="BM25" s="1" t="n">
+        <v>11.3942</v>
+      </c>
+      <c r="BN25" s="1" t="n">
+        <v>7.54902</v>
+      </c>
+      <c r="BO25" s="1" t="n">
+        <v>9.28623</v>
+      </c>
+      <c r="BP25" s="1" t="n">
+        <v>11.2406</v>
+      </c>
+      <c r="BQ25" s="1" t="n">
+        <v>13.1417</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>kmol/hr</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1" t="n">
+        <v>2.10164</v>
+      </c>
+      <c r="R26" s="1" t="n">
+        <v>2.23299</v>
+      </c>
+      <c r="S26" s="1" t="n">
+        <v>2.23299</v>
+      </c>
+      <c r="T26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="n">
+        <v>1.0606</v>
+      </c>
+      <c r="V26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="1" t="n">
+        <v>9.80241</v>
+      </c>
+      <c r="AB26" s="1" t="n">
+        <v>9.80241</v>
+      </c>
+      <c r="AC26" s="1" t="n">
+        <v>9.80241</v>
+      </c>
+      <c r="AD26" s="1" t="n">
+        <v>0.492484</v>
+      </c>
+      <c r="AE26" s="1" t="n">
+        <v>10.9901</v>
+      </c>
+      <c r="AF26" s="1" t="n">
+        <v>10.9921</v>
+      </c>
+      <c r="AG26" s="1" t="n">
+        <v>10.9921</v>
+      </c>
+      <c r="AH26" s="1" t="n">
+        <v>9.931520000000001</v>
+      </c>
+      <c r="AI26" s="1" t="n">
+        <v>1.0606</v>
+      </c>
+      <c r="AJ26" s="1" t="n">
+        <v>0.12911</v>
+      </c>
+      <c r="AK26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL26" s="1" t="n">
+        <v>0.129053</v>
+      </c>
+      <c r="AM26" s="1" t="n">
+        <v>0.129053</v>
+      </c>
+      <c r="AN26" s="1" t="n">
+        <v>0.129053</v>
+      </c>
+      <c r="AO26" s="2" t="n">
+        <v>5.68825e-05</v>
+      </c>
+      <c r="AP26" s="1" t="n">
+        <v>0.363431</v>
+      </c>
+      <c r="AQ26" s="1" t="n">
+        <v>0.697222</v>
+      </c>
+      <c r="AR26" s="1" t="n">
+        <v>0.592803</v>
+      </c>
+      <c r="AS26" s="1" t="n">
+        <v>0.592803</v>
+      </c>
+      <c r="AT26" s="1" t="n">
+        <v>0.592803</v>
+      </c>
+      <c r="AU26" s="1" t="n">
+        <v>0.592804</v>
+      </c>
+      <c r="AV26" s="2" t="n">
+        <v>1.55547e-14</v>
+      </c>
+      <c r="AW26" s="2" t="n">
+        <v>1.55547e-14</v>
+      </c>
+      <c r="AX26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB26" s="1" t="n">
+        <v>1.08529</v>
+      </c>
+      <c r="BC26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="1" t="n">
+        <v>0.104419</v>
+      </c>
+      <c r="BF26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG26" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH26" s="1" t="n">
+        <v>6.56762</v>
+      </c>
+      <c r="BI26" s="1" t="n">
+        <v>3.2348</v>
+      </c>
+      <c r="BJ26" s="1" t="n">
+        <v>3.2348</v>
+      </c>
+      <c r="BK26" s="1" t="n">
+        <v>5.85592</v>
+      </c>
+      <c r="BL26" s="1" t="n">
+        <v>8.23072</v>
+      </c>
+      <c r="BM26" s="1" t="n">
+        <v>10.7037</v>
+      </c>
+      <c r="BN26" s="1" t="n">
+        <v>3.75428</v>
+      </c>
+      <c r="BO26" s="1" t="n">
+        <v>5.99773</v>
+      </c>
+      <c r="BP26" s="1" t="n">
+        <v>8.470689999999999</v>
+      </c>
+      <c r="BQ26" s="1" t="n">
+        <v>10.9901</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
+          <t>H2</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" s="1" t="n">
+        <v>0.6794</v>
+      </c>
+      <c r="N27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1" t="n">
+        <v>0.6360749999999999</v>
+      </c>
+      <c r="R27" s="1" t="n">
+        <v>0.6360749999999999</v>
+      </c>
+      <c r="S27" s="1" t="n">
+        <v>0.6360749999999999</v>
+      </c>
+      <c r="T27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" s="1" t="n">
+        <v>0.00217921</v>
+      </c>
+      <c r="V27" s="1" t="n">
+        <v>0.6794</v>
+      </c>
+      <c r="W27" s="1" t="n">
+        <v>0.6794</v>
+      </c>
+      <c r="X27" s="2" t="n">
+        <v>1.5955e-05</v>
+      </c>
+      <c r="Y27" s="1" t="n">
+        <v>0.680288</v>
+      </c>
+      <c r="Z27" s="1" t="n">
+        <v>0.680288</v>
+      </c>
+      <c r="AA27" s="1" t="n">
+        <v>0.625374</v>
+      </c>
+      <c r="AB27" s="1" t="n">
+        <v>0.625374</v>
+      </c>
+      <c r="AC27" s="1" t="n">
+        <v>0.6360749999999999</v>
+      </c>
+      <c r="AD27" s="1" t="n">
+        <v>0.56276</v>
+      </c>
+      <c r="AE27" s="1" t="n">
+        <v>0.57537</v>
+      </c>
+      <c r="AF27" s="1" t="n">
+        <v>0.575363</v>
+      </c>
+      <c r="AG27" s="1" t="n">
+        <v>0.575363</v>
+      </c>
+      <c r="AH27" s="1" t="n">
+        <v>0.625374</v>
+      </c>
+      <c r="AI27" s="1" t="n">
+        <v>0.00217921</v>
+      </c>
+      <c r="AJ27" s="1" t="n">
+        <v>0.625374</v>
+      </c>
+      <c r="AK27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="1" t="n">
+        <v>0.628462</v>
+      </c>
+      <c r="AM27" s="1" t="n">
+        <v>0.628462</v>
+      </c>
+      <c r="AN27" s="1" t="n">
+        <v>0.628462</v>
+      </c>
+      <c r="AO27" s="2" t="n">
+        <v>1.87137e-05</v>
+      </c>
+      <c r="AP27" s="1" t="n">
+        <v>0.102616</v>
+      </c>
+      <c r="AQ27" s="2" t="n">
+        <v>8.359700000000001e-06</v>
+      </c>
+      <c r="AR27" s="2" t="n">
+        <v>1.01557e-07</v>
+      </c>
+      <c r="AS27" s="2" t="n">
+        <v>1.01557e-07</v>
+      </c>
+      <c r="AT27" s="2" t="n">
+        <v>1.01557e-07</v>
+      </c>
+      <c r="AU27" s="2" t="n">
+        <v>2.23891e-05</v>
+      </c>
+      <c r="AV27" s="2" t="n">
+        <v>1.12256e-49</v>
+      </c>
+      <c r="AW27" s="2" t="n">
+        <v>1.12256e-49</v>
+      </c>
+      <c r="AX27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB27" s="1" t="n">
+        <v>0.546668</v>
+      </c>
+      <c r="BC27" s="2" t="n">
+        <v>1.90138e-07</v>
+      </c>
+      <c r="BD27" s="2" t="n">
+        <v>1.90138e-07</v>
+      </c>
+      <c r="BE27" s="1" t="n">
+        <v>0.00299116</v>
+      </c>
+      <c r="BF27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG27" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH27" s="1" t="n">
+        <v>0.6360749999999999</v>
+      </c>
+      <c r="BI27" s="1" t="n">
+        <v>0.6360749999999999</v>
+      </c>
+      <c r="BJ27" s="1" t="n">
+        <v>0.6360749999999999</v>
+      </c>
+      <c r="BK27" s="1" t="n">
+        <v>0.611787</v>
+      </c>
+      <c r="BL27" s="1" t="n">
+        <v>0.60044</v>
+      </c>
+      <c r="BM27" s="1" t="n">
+        <v>0.592715</v>
+      </c>
+      <c r="BN27" s="1" t="n">
+        <v>0.594743</v>
+      </c>
+      <c r="BO27" s="1" t="n">
+        <v>0.5839259999999999</v>
+      </c>
+      <c r="BP27" s="1" t="n">
+        <v>0.578382</v>
+      </c>
+      <c r="BQ27" s="1" t="n">
+        <v>0.57537</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>N2</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1" t="n">
+        <v>0.003206</v>
+      </c>
+      <c r="N28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1" t="n">
+        <v>0.0464707</v>
+      </c>
+      <c r="R28" s="1" t="n">
+        <v>0.0464707</v>
+      </c>
+      <c r="S28" s="1" t="n">
+        <v>0.0464707</v>
+      </c>
+      <c r="T28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" s="1" t="n">
+        <v>0.000305501</v>
+      </c>
+      <c r="V28" s="1" t="n">
+        <v>0.003206</v>
+      </c>
+      <c r="W28" s="1" t="n">
+        <v>0.003206</v>
+      </c>
+      <c r="X28" s="2" t="n">
+        <v>1.79579e-08</v>
+      </c>
+      <c r="Y28" s="1" t="n">
+        <v>0.00321019</v>
+      </c>
+      <c r="Z28" s="1" t="n">
+        <v>0.00321019</v>
+      </c>
+      <c r="AA28" s="1" t="n">
+        <v>0.0569416</v>
+      </c>
+      <c r="AB28" s="1" t="n">
+        <v>0.0569416</v>
+      </c>
+      <c r="AC28" s="1" t="n">
+        <v>0.0464707</v>
+      </c>
+      <c r="AD28" s="1" t="n">
+        <v>0.0518661</v>
+      </c>
+      <c r="AE28" s="1" t="n">
+        <v>0.0523962</v>
+      </c>
+      <c r="AF28" s="1" t="n">
+        <v>0.0523966</v>
+      </c>
+      <c r="AG28" s="1" t="n">
+        <v>0.0523966</v>
+      </c>
+      <c r="AH28" s="1" t="n">
+        <v>0.0569416</v>
+      </c>
+      <c r="AI28" s="1" t="n">
+        <v>0.000305501</v>
+      </c>
+      <c r="AJ28" s="1" t="n">
+        <v>0.0569416</v>
+      </c>
+      <c r="AK28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="1" t="n">
+        <v>0.0572239</v>
+      </c>
+      <c r="AM28" s="1" t="n">
+        <v>0.0572239</v>
+      </c>
+      <c r="AN28" s="1" t="n">
+        <v>0.0572239</v>
+      </c>
+      <c r="AO28" s="2" t="n">
+        <v>3.91721e-07</v>
+      </c>
+      <c r="AP28" s="1" t="n">
+        <v>0.0143424</v>
+      </c>
+      <c r="AQ28" s="2" t="n">
+        <v>1.75013e-06</v>
+      </c>
+      <c r="AR28" s="2" t="n">
+        <v>3.17189e-08</v>
+      </c>
+      <c r="AS28" s="2" t="n">
+        <v>3.17189e-08</v>
+      </c>
+      <c r="AT28" s="2" t="n">
+        <v>3.17189e-08</v>
+      </c>
+      <c r="AU28" s="2" t="n">
+        <v>6.99268e-06</v>
+      </c>
+      <c r="AV28" s="2" t="n">
+        <v>4.2121e-48</v>
+      </c>
+      <c r="AW28" s="2" t="n">
+        <v>4.2121e-48</v>
+      </c>
+      <c r="AX28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB28" s="1" t="n">
+        <v>0.0503831</v>
+      </c>
+      <c r="BC28" s="2" t="n">
+        <v>2.14007e-10</v>
+      </c>
+      <c r="BD28" s="2" t="n">
+        <v>2.14007e-10</v>
+      </c>
+      <c r="BE28" s="1" t="n">
+        <v>0.000622432</v>
+      </c>
+      <c r="BF28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG28" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH28" s="1" t="n">
+        <v>0.0464707</v>
+      </c>
+      <c r="BI28" s="1" t="n">
+        <v>0.0464707</v>
+      </c>
+      <c r="BJ28" s="1" t="n">
+        <v>0.0464707</v>
+      </c>
+      <c r="BK28" s="1" t="n">
+        <v>0.0486574</v>
+      </c>
+      <c r="BL28" s="1" t="n">
+        <v>0.0498819</v>
+      </c>
+      <c r="BM28" s="1" t="n">
+        <v>0.0506808</v>
+      </c>
+      <c r="BN28" s="1" t="n">
+        <v>0.0501918</v>
+      </c>
+      <c r="BO28" s="1" t="n">
+        <v>0.0514626</v>
+      </c>
+      <c r="BP28" s="1" t="n">
+        <v>0.0520725</v>
+      </c>
+      <c r="BQ28" s="1" t="n">
+        <v>0.0523962</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
+        <is>
+          <t>CO</t>
+        </is>
+      </c>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" s="1" t="n">
+        <v>0.226043</v>
+      </c>
+      <c r="N29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1" t="n">
+        <v>0.0622097</v>
+      </c>
+      <c r="R29" s="1" t="n">
+        <v>0.0622097</v>
+      </c>
+      <c r="S29" s="1" t="n">
+        <v>0.0622097</v>
+      </c>
+      <c r="T29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" s="1" t="n">
+        <v>0.000131604</v>
+      </c>
+      <c r="V29" s="1" t="n">
+        <v>0.226043</v>
+      </c>
+      <c r="W29" s="1" t="n">
+        <v>0.226043</v>
+      </c>
+      <c r="X29" s="2" t="n">
+        <v>1.31252e-06</v>
+      </c>
+      <c r="Y29" s="1" t="n">
+        <v>0.226338</v>
+      </c>
+      <c r="Z29" s="1" t="n">
+        <v>0.226338</v>
+      </c>
+      <c r="AA29" s="1" t="n">
+        <v>0.0224834</v>
+      </c>
+      <c r="AB29" s="1" t="n">
+        <v>0.0224834</v>
+      </c>
+      <c r="AC29" s="1" t="n">
+        <v>0.0622097</v>
+      </c>
+      <c r="AD29" s="1" t="n">
+        <v>0.0205433</v>
+      </c>
+      <c r="AE29" s="1" t="n">
+        <v>0.0206885</v>
+      </c>
+      <c r="AF29" s="1" t="n">
+        <v>0.0206897</v>
+      </c>
+      <c r="AG29" s="1" t="n">
+        <v>0.0206897</v>
+      </c>
+      <c r="AH29" s="1" t="n">
+        <v>0.0224834</v>
+      </c>
+      <c r="AI29" s="1" t="n">
+        <v>0.000131604</v>
+      </c>
+      <c r="AJ29" s="1" t="n">
+        <v>0.0224834</v>
+      </c>
+      <c r="AK29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="1" t="n">
+        <v>0.0225949</v>
+      </c>
+      <c r="AM29" s="1" t="n">
+        <v>0.0225949</v>
+      </c>
+      <c r="AN29" s="1" t="n">
+        <v>0.0225949</v>
+      </c>
+      <c r="AO29" s="2" t="n">
+        <v>1.60269e-07</v>
+      </c>
+      <c r="AP29" s="1" t="n">
+        <v>0.00617467</v>
+      </c>
+      <c r="AQ29" s="2" t="n">
+        <v>8.24877e-07</v>
+      </c>
+      <c r="AR29" s="2" t="n">
+        <v>1.63445e-08</v>
+      </c>
+      <c r="AS29" s="2" t="n">
+        <v>1.63445e-08</v>
+      </c>
+      <c r="AT29" s="2" t="n">
+        <v>1.63445e-08</v>
+      </c>
+      <c r="AU29" s="2" t="n">
+        <v>3.60328e-06</v>
+      </c>
+      <c r="AV29" s="2" t="n">
+        <v>5.46348e-48</v>
+      </c>
+      <c r="AW29" s="2" t="n">
+        <v>5.46348e-48</v>
+      </c>
+      <c r="AX29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB29" s="1" t="n">
+        <v>0.0199559</v>
+      </c>
+      <c r="BC29" s="2" t="n">
+        <v>1.56415e-08</v>
+      </c>
+      <c r="BD29" s="2" t="n">
+        <v>1.56415e-08</v>
+      </c>
+      <c r="BE29" s="1" t="n">
+        <v>0.000292863</v>
+      </c>
+      <c r="BF29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG29" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH29" s="1" t="n">
+        <v>0.0622097</v>
+      </c>
+      <c r="BI29" s="1" t="n">
+        <v>0.0622097</v>
+      </c>
+      <c r="BJ29" s="1" t="n">
+        <v>0.0622097</v>
+      </c>
+      <c r="BK29" s="1" t="n">
+        <v>0.0487738</v>
+      </c>
+      <c r="BL29" s="1" t="n">
+        <v>0.0389952</v>
+      </c>
+      <c r="BM29" s="1" t="n">
+        <v>0.0329374</v>
+      </c>
+      <c r="BN29" s="1" t="n">
+        <v>0.0393455</v>
+      </c>
+      <c r="BO29" s="1" t="n">
+        <v>0.0282377</v>
+      </c>
+      <c r="BP29" s="1" t="n">
+        <v>0.023261</v>
+      </c>
+      <c r="BQ29" s="1" t="n">
+        <v>0.0206885</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
+        <is>
+          <t>CO2</t>
+        </is>
+      </c>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" s="1" t="n">
+        <v>0.073464</v>
+      </c>
+      <c r="N30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1" t="n">
+        <v>0.053314</v>
+      </c>
+      <c r="R30" s="1" t="n">
+        <v>0.053314</v>
+      </c>
+      <c r="S30" s="1" t="n">
+        <v>0.053314</v>
+      </c>
+      <c r="T30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U30" s="1" t="n">
+        <v>0.0160121</v>
+      </c>
+      <c r="V30" s="1" t="n">
+        <v>0.073464</v>
+      </c>
+      <c r="W30" s="1" t="n">
+        <v>0.073464</v>
+      </c>
+      <c r="X30" s="1" t="n">
+        <v>0.000233571</v>
+      </c>
+      <c r="Y30" s="1" t="n">
+        <v>0.07355970000000001</v>
+      </c>
+      <c r="Z30" s="1" t="n">
+        <v>0.07355970000000001</v>
+      </c>
+      <c r="AA30" s="1" t="n">
+        <v>0.0484136</v>
+      </c>
+      <c r="AB30" s="1" t="n">
+        <v>0.0484136</v>
+      </c>
+      <c r="AC30" s="1" t="n">
+        <v>0.053314</v>
+      </c>
+      <c r="AD30" s="1" t="n">
+        <v>0.104343</v>
+      </c>
+      <c r="AE30" s="1" t="n">
+        <v>0.0458105</v>
+      </c>
+      <c r="AF30" s="1" t="n">
+        <v>0.0458134</v>
+      </c>
+      <c r="AG30" s="1" t="n">
+        <v>0.0458134</v>
+      </c>
+      <c r="AH30" s="1" t="n">
+        <v>0.0484136</v>
+      </c>
+      <c r="AI30" s="1" t="n">
+        <v>0.0160121</v>
+      </c>
+      <c r="AJ30" s="1" t="n">
+        <v>0.0484136</v>
+      </c>
+      <c r="AK30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1" t="n">
+        <v>0.048485</v>
+      </c>
+      <c r="AM30" s="1" t="n">
+        <v>0.048485</v>
+      </c>
+      <c r="AN30" s="1" t="n">
+        <v>0.048485</v>
+      </c>
+      <c r="AO30" s="1" t="n">
+        <v>0.000202308</v>
+      </c>
+      <c r="AP30" s="1" t="n">
+        <v>0.495548</v>
+      </c>
+      <c r="AQ30" s="1" t="n">
+        <v>0.00503065</v>
+      </c>
+      <c r="AR30" s="1" t="n">
+        <v>0.0030726</v>
+      </c>
+      <c r="AS30" s="1" t="n">
+        <v>0.0030726</v>
+      </c>
+      <c r="AT30" s="1" t="n">
+        <v>0.0030726</v>
+      </c>
+      <c r="AU30" s="1" t="n">
+        <v>0.67738</v>
+      </c>
+      <c r="AV30" s="2" t="n">
+        <v>4.13659e-24</v>
+      </c>
+      <c r="AW30" s="2" t="n">
+        <v>4.13659e-24</v>
+      </c>
+      <c r="AX30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="1" t="n">
+        <v>0.120729</v>
+      </c>
+      <c r="BC30" s="2" t="n">
+        <v>2.7835e-06</v>
+      </c>
+      <c r="BD30" s="2" t="n">
+        <v>2.7835e-06</v>
+      </c>
+      <c r="BE30" s="1" t="n">
+        <v>0.712267</v>
+      </c>
+      <c r="BF30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG30" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" s="1" t="n">
+        <v>0.053314</v>
+      </c>
+      <c r="BI30" s="1" t="n">
+        <v>0.053314</v>
+      </c>
+      <c r="BJ30" s="1" t="n">
+        <v>0.053314</v>
+      </c>
+      <c r="BK30" s="1" t="n">
+        <v>0.0486585</v>
+      </c>
+      <c r="BL30" s="1" t="n">
+        <v>0.0483059</v>
+      </c>
+      <c r="BM30" s="1" t="n">
+        <v>0.0477541</v>
+      </c>
+      <c r="BN30" s="1" t="n">
+        <v>0.0453917</v>
+      </c>
+      <c r="BO30" s="1" t="n">
+        <v>0.0459853</v>
+      </c>
+      <c r="BP30" s="1" t="n">
+        <v>0.0459162</v>
+      </c>
+      <c r="BQ30" s="1" t="n">
+        <v>0.0458105</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
+        <is>
+          <t>H2O</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="J31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="K31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1" t="n">
+        <v>0.0024926</v>
+      </c>
+      <c r="N31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="P31" s="2" t="n">
+        <v>1.07934e-06</v>
+      </c>
+      <c r="Q31" s="1" t="n">
+        <v>0.000466886</v>
+      </c>
+      <c r="R31" s="1" t="n">
+        <v>0.000466886</v>
+      </c>
+      <c r="S31" s="1" t="n">
+        <v>0.000466886</v>
+      </c>
+      <c r="T31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="U31" s="1" t="n">
+        <v>0.182267</v>
+      </c>
+      <c r="V31" s="1" t="n">
+        <v>0.0024926</v>
+      </c>
+      <c r="W31" s="1" t="n">
+        <v>0.0024926</v>
+      </c>
+      <c r="X31" s="1" t="n">
+        <v>0.999748</v>
+      </c>
+      <c r="Y31" s="1" t="n">
+        <v>0.00118835</v>
+      </c>
+      <c r="Z31" s="1" t="n">
+        <v>0.00118835</v>
+      </c>
+      <c r="AA31" s="1" t="n">
+        <v>0.000292261</v>
+      </c>
+      <c r="AB31" s="1" t="n">
+        <v>0.000292261</v>
+      </c>
+      <c r="AC31" s="1" t="n">
+        <v>0.000466886</v>
+      </c>
+      <c r="AD31" s="1" t="n">
+        <v>0.00150858</v>
+      </c>
+      <c r="AE31" s="1" t="n">
+        <v>0.0148954</v>
+      </c>
+      <c r="AF31" s="1" t="n">
+        <v>0.0148955</v>
+      </c>
+      <c r="AG31" s="1" t="n">
+        <v>0.0148955</v>
+      </c>
+      <c r="AH31" s="1" t="n">
+        <v>0.000292261</v>
+      </c>
+      <c r="AI31" s="1" t="n">
+        <v>0.182267</v>
+      </c>
+      <c r="AJ31" s="1" t="n">
+        <v>0.000292261</v>
+      </c>
+      <c r="AK31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="1" t="n">
+        <v>0.000480503</v>
+      </c>
+      <c r="AM31" s="1" t="n">
+        <v>0.000480503</v>
+      </c>
+      <c r="AN31" s="1" t="n">
+        <v>0.000480503</v>
+      </c>
+      <c r="AO31" s="1" t="n">
+        <v>0.99383</v>
+      </c>
+      <c r="AP31" s="1" t="n">
+        <v>0.008708779999999999</v>
+      </c>
+      <c r="AQ31" s="1" t="n">
+        <v>0.276682</v>
+      </c>
+      <c r="AR31" s="1" t="n">
+        <v>0.277393</v>
+      </c>
+      <c r="AS31" s="1" t="n">
+        <v>0.277393</v>
+      </c>
+      <c r="AT31" s="1" t="n">
+        <v>0.277393</v>
+      </c>
+      <c r="AU31" s="2" t="n">
+        <v>4.33148e-08</v>
+      </c>
+      <c r="AV31" s="1" t="n">
+        <v>0.278657</v>
+      </c>
+      <c r="AW31" s="1" t="n">
+        <v>0.278657</v>
+      </c>
+      <c r="AX31" s="1" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="AY31" s="1" t="n">
+        <v>0.999999</v>
+      </c>
+      <c r="AZ31" s="1" t="n">
+        <v>0.740406</v>
+      </c>
+      <c r="BA31" s="2" t="n">
+        <v>1.07934e-06</v>
+      </c>
+      <c r="BB31" s="1" t="n">
+        <v>0.00146545</v>
+      </c>
+      <c r="BC31" s="1" t="n">
+        <v>0.999996</v>
+      </c>
+      <c r="BD31" s="1" t="n">
+        <v>0.999996</v>
+      </c>
+      <c r="BE31" s="1" t="n">
+        <v>0.0199278</v>
+      </c>
+      <c r="BF31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG31" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="BH31" s="1" t="n">
+        <v>0.000466886</v>
+      </c>
+      <c r="BI31" s="1" t="n">
+        <v>0.000466886</v>
+      </c>
+      <c r="BJ31" s="1" t="n">
+        <v>0.000466886</v>
+      </c>
+      <c r="BK31" s="1" t="n">
+        <v>0.00771911</v>
+      </c>
+      <c r="BL31" s="1" t="n">
+        <v>0.00948104</v>
+      </c>
+      <c r="BM31" s="1" t="n">
+        <v>0.0109546</v>
+      </c>
+      <c r="BN31" s="1" t="n">
+        <v>0.0128081</v>
+      </c>
+      <c r="BO31" s="1" t="n">
+        <v>0.0136581</v>
+      </c>
+      <c r="BP31" s="1" t="n">
+        <v>0.0144215</v>
+      </c>
+      <c r="BQ31" s="1" t="n">
+        <v>0.0148954</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CH4</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="n"/>
+      <c r="C32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" s="1" t="n">
+        <v>0.015395</v>
+      </c>
+      <c r="N32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1" t="n">
+        <v>0.197452</v>
+      </c>
+      <c r="R32" s="1" t="n">
+        <v>0.197452</v>
+      </c>
+      <c r="S32" s="1" t="n">
+        <v>0.197452</v>
+      </c>
+      <c r="T32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" s="1" t="n">
+        <v>0.00621196</v>
+      </c>
+      <c r="V32" s="1" t="n">
+        <v>0.015395</v>
+      </c>
+      <c r="W32" s="1" t="n">
+        <v>0.015395</v>
+      </c>
+      <c r="X32" s="2" t="n">
+        <v>6.82758e-07</v>
+      </c>
+      <c r="Y32" s="1" t="n">
+        <v>0.0154151</v>
+      </c>
+      <c r="Z32" s="1" t="n">
+        <v>0.0154151</v>
+      </c>
+      <c r="AA32" s="1" t="n">
+        <v>0.241513</v>
+      </c>
+      <c r="AB32" s="1" t="n">
+        <v>0.241513</v>
+      </c>
+      <c r="AC32" s="1" t="n">
+        <v>0.197452</v>
+      </c>
+      <c r="AD32" s="1" t="n">
+        <v>0.247851</v>
+      </c>
+      <c r="AE32" s="1" t="n">
+        <v>0.222629</v>
+      </c>
+      <c r="AF32" s="1" t="n">
+        <v>0.22263</v>
+      </c>
+      <c r="AG32" s="1" t="n">
+        <v>0.22263</v>
+      </c>
+      <c r="AH32" s="1" t="n">
+        <v>0.241513</v>
+      </c>
+      <c r="AI32" s="1" t="n">
+        <v>0.00621196</v>
+      </c>
+      <c r="AJ32" s="1" t="n">
+        <v>0.241513</v>
+      </c>
+      <c r="AK32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="1" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="AM32" s="1" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="AN32" s="1" t="n">
+        <v>0.2427</v>
+      </c>
+      <c r="AO32" s="2" t="n">
+        <v>1.31684e-05</v>
+      </c>
+      <c r="AP32" s="1" t="n">
+        <v>0.283923</v>
+      </c>
+      <c r="AQ32" s="1" t="n">
+        <v>0.000184218</v>
+      </c>
+      <c r="AR32" s="2" t="n">
+        <v>1.65558e-05</v>
+      </c>
+      <c r="AS32" s="2" t="n">
+        <v>1.65558e-05</v>
+      </c>
+      <c r="AT32" s="2" t="n">
+        <v>1.65558e-05</v>
+      </c>
+      <c r="AU32" s="1" t="n">
+        <v>0.00364986</v>
+      </c>
+      <c r="AV32" s="2" t="n">
+        <v>1.1533e-37</v>
+      </c>
+      <c r="AW32" s="2" t="n">
+        <v>1.1533e-37</v>
+      </c>
+      <c r="AX32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB32" s="1" t="n">
+        <v>0.240868</v>
+      </c>
+      <c r="BC32" s="2" t="n">
+        <v>8.136529999999999e-09</v>
+      </c>
+      <c r="BD32" s="2" t="n">
+        <v>8.136529999999999e-09</v>
+      </c>
+      <c r="BE32" s="1" t="n">
+        <v>0.0607429</v>
+      </c>
+      <c r="BF32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG32" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH32" s="1" t="n">
+        <v>0.197452</v>
+      </c>
+      <c r="BI32" s="1" t="n">
+        <v>0.197452</v>
+      </c>
+      <c r="BJ32" s="1" t="n">
+        <v>0.197452</v>
+      </c>
+      <c r="BK32" s="1" t="n">
+        <v>0.206743</v>
+      </c>
+      <c r="BL32" s="1" t="n">
+        <v>0.211946</v>
+      </c>
+      <c r="BM32" s="1" t="n">
+        <v>0.21534</v>
+      </c>
+      <c r="BN32" s="1" t="n">
+        <v>0.213263</v>
+      </c>
+      <c r="BO32" s="1" t="n">
+        <v>0.218662</v>
+      </c>
+      <c r="BP32" s="1" t="n">
+        <v>0.221254</v>
+      </c>
+      <c r="BQ32" s="1" t="n">
+        <v>0.222629</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>MEOH</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="n"/>
+      <c r="C33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" s="1" t="n">
+        <v>0.999878</v>
+      </c>
+      <c r="Q33" s="1" t="n">
+        <v>0.00396576</v>
+      </c>
+      <c r="R33" s="1" t="n">
+        <v>0.00396576</v>
+      </c>
+      <c r="S33" s="1" t="n">
+        <v>0.00396576</v>
+      </c>
+      <c r="T33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U33" s="1" t="n">
+        <v>0.79206</v>
+      </c>
+      <c r="V33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="1" t="n">
+        <v>0.00492564</v>
+      </c>
+      <c r="AB33" s="1" t="n">
+        <v>0.00492564</v>
+      </c>
+      <c r="AC33" s="1" t="n">
+        <v>0.00396576</v>
+      </c>
+      <c r="AD33" s="1" t="n">
+        <v>0.0109409</v>
+      </c>
+      <c r="AE33" s="1" t="n">
+        <v>0.0680915</v>
+      </c>
+      <c r="AF33" s="1" t="n">
+        <v>0.06809220000000001</v>
+      </c>
+      <c r="AG33" s="1" t="n">
+        <v>0.06809220000000001</v>
+      </c>
+      <c r="AH33" s="1" t="n">
+        <v>0.00492564</v>
+      </c>
+      <c r="AI33" s="1" t="n">
+        <v>0.79206</v>
+      </c>
+      <c r="AJ33" s="1" t="n">
+        <v>0.00492564</v>
+      </c>
+      <c r="AK33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="2" t="n">
+        <v>2.14597e-21</v>
+      </c>
+      <c r="AM33" s="2" t="n">
+        <v>2.14597e-21</v>
+      </c>
+      <c r="AN33" s="2" t="n">
+        <v>2.14597e-21</v>
+      </c>
+      <c r="AO33" s="1" t="n">
+        <v>0.00593084</v>
+      </c>
+      <c r="AP33" s="1" t="n">
+        <v>0.0875657</v>
+      </c>
+      <c r="AQ33" s="1" t="n">
+        <v>0.7173580000000001</v>
+      </c>
+      <c r="AR33" s="1" t="n">
+        <v>0.718788</v>
+      </c>
+      <c r="AS33" s="1" t="n">
+        <v>0.718788</v>
+      </c>
+      <c r="AT33" s="1" t="n">
+        <v>0.718788</v>
+      </c>
+      <c r="AU33" s="1" t="n">
+        <v>0.311621</v>
+      </c>
+      <c r="AV33" s="1" t="n">
+        <v>0.720643</v>
+      </c>
+      <c r="AW33" s="1" t="n">
+        <v>0.720643</v>
+      </c>
+      <c r="AX33" s="2" t="n">
+        <v>4.04892e-07</v>
+      </c>
+      <c r="AY33" s="2" t="n">
+        <v>4.04892e-07</v>
+      </c>
+      <c r="AZ33" s="1" t="n">
+        <v>0.198282</v>
+      </c>
+      <c r="BA33" s="1" t="n">
+        <v>0.999878</v>
+      </c>
+      <c r="BB33" s="1" t="n">
+        <v>0.0195389</v>
+      </c>
+      <c r="BC33" s="2" t="n">
+        <v>4.00067e-07</v>
+      </c>
+      <c r="BD33" s="2" t="n">
+        <v>4.00067e-07</v>
+      </c>
+      <c r="BE33" s="1" t="n">
+        <v>0.200895</v>
+      </c>
+      <c r="BF33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG33" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH33" s="1" t="n">
+        <v>0.00396576</v>
+      </c>
+      <c r="BI33" s="1" t="n">
+        <v>0.00396576</v>
+      </c>
+      <c r="BJ33" s="1" t="n">
+        <v>0.00396576</v>
+      </c>
+      <c r="BK33" s="1" t="n">
+        <v>0.0275475</v>
+      </c>
+      <c r="BL33" s="1" t="n">
+        <v>0.0408428</v>
+      </c>
+      <c r="BM33" s="1" t="n">
+        <v>0.0495122</v>
+      </c>
+      <c r="BN33" s="1" t="n">
+        <v>0.0440953</v>
+      </c>
+      <c r="BO33" s="1" t="n">
+        <v>0.0579313</v>
+      </c>
+      <c r="BP33" s="1" t="n">
+        <v>0.06456820000000001</v>
+      </c>
+      <c r="BQ33" s="1" t="n">
+        <v>0.0680915</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>ETOH</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="n"/>
+      <c r="C34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" s="1" t="n">
+        <v>0.000121024</v>
+      </c>
+      <c r="Q34" s="2" t="n">
+        <v>2.95377e-06</v>
+      </c>
+      <c r="R34" s="2" t="n">
+        <v>2.95377e-06</v>
+      </c>
+      <c r="S34" s="2" t="n">
+        <v>2.95377e-06</v>
+      </c>
+      <c r="T34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" s="1" t="n">
+        <v>0.000766987</v>
+      </c>
+      <c r="V34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2" t="n">
+        <v>3.66872e-06</v>
+      </c>
+      <c r="AB34" s="2" t="n">
+        <v>3.66872e-06</v>
+      </c>
+      <c r="AC34" s="2" t="n">
+        <v>2.95377e-06</v>
+      </c>
+      <c r="AD34" s="2" t="n">
+        <v>8.125389999999999e-06</v>
+      </c>
+      <c r="AE34" s="2" t="n">
+        <v>6.49168e-05</v>
+      </c>
+      <c r="AF34" s="2" t="n">
+        <v>6.49241e-05</v>
+      </c>
+      <c r="AG34" s="2" t="n">
+        <v>6.49241e-05</v>
+      </c>
+      <c r="AH34" s="2" t="n">
+        <v>3.66872e-06</v>
+      </c>
+      <c r="AI34" s="1" t="n">
+        <v>0.000766987</v>
+      </c>
+      <c r="AJ34" s="2" t="n">
+        <v>3.66872e-06</v>
+      </c>
+      <c r="AK34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2" t="n">
+        <v>2.67197e-24</v>
+      </c>
+      <c r="AM34" s="2" t="n">
+        <v>2.67197e-24</v>
+      </c>
+      <c r="AN34" s="2" t="n">
+        <v>2.67197e-24</v>
+      </c>
+      <c r="AO34" s="2" t="n">
+        <v>4.41741e-06</v>
+      </c>
+      <c r="AP34" s="2" t="n">
+        <v>6.50318e-05</v>
+      </c>
+      <c r="AQ34" s="1" t="n">
+        <v>0.0006948809999999999</v>
+      </c>
+      <c r="AR34" s="1" t="n">
+        <v>0.000696392</v>
+      </c>
+      <c r="AS34" s="1" t="n">
+        <v>0.000696392</v>
+      </c>
+      <c r="AT34" s="1" t="n">
+        <v>0.000696392</v>
+      </c>
+      <c r="AU34" s="2" t="n">
+        <v>2.76288e-07</v>
+      </c>
+      <c r="AV34" s="1" t="n">
+        <v>0.000699564</v>
+      </c>
+      <c r="AW34" s="1" t="n">
+        <v>0.000699564</v>
+      </c>
+      <c r="AX34" s="2" t="n">
+        <v>1.09437e-07</v>
+      </c>
+      <c r="AY34" s="2" t="n">
+        <v>1.09437e-07</v>
+      </c>
+      <c r="AZ34" s="1" t="n">
+        <v>0.0613119</v>
+      </c>
+      <c r="BA34" s="1" t="n">
+        <v>0.000121024</v>
+      </c>
+      <c r="BB34" s="2" t="n">
+        <v>7.90094e-06</v>
+      </c>
+      <c r="BC34" s="2" t="n">
+        <v>1.08133e-07</v>
+      </c>
+      <c r="BD34" s="2" t="n">
+        <v>1.08133e-07</v>
+      </c>
+      <c r="BE34" s="1" t="n">
+        <v>0.000149121</v>
+      </c>
+      <c r="BF34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG34" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH34" s="2" t="n">
+        <v>2.95377e-06</v>
+      </c>
+      <c r="BI34" s="2" t="n">
+        <v>2.95377e-06</v>
+      </c>
+      <c r="BJ34" s="2" t="n">
+        <v>2.95377e-06</v>
+      </c>
+      <c r="BK34" s="2" t="n">
+        <v>6.48282e-05</v>
+      </c>
+      <c r="BL34" s="2" t="n">
+        <v>5.74886e-05</v>
+      </c>
+      <c r="BM34" s="2" t="n">
+        <v>5.44419e-05</v>
+      </c>
+      <c r="BN34" s="1" t="n">
+        <v>0.000108247</v>
+      </c>
+      <c r="BO34" s="2" t="n">
+        <v>8.27596e-05</v>
+      </c>
+      <c r="BP34" s="2" t="n">
+        <v>7.146189999999999e-05</v>
+      </c>
+      <c r="BQ34" s="2" t="n">
+        <v>6.49168e-05</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="n"/>
+      <c r="C35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2" t="n">
+        <v>4.29455e-05</v>
+      </c>
+      <c r="R35" s="2" t="n">
+        <v>4.29455e-05</v>
+      </c>
+      <c r="S35" s="2" t="n">
+        <v>4.29455e-05</v>
+      </c>
+      <c r="T35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" s="2" t="n">
+        <v>6.528610000000001e-05</v>
+      </c>
+      <c r="V35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="X35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2" t="n">
+        <v>5.33402e-05</v>
+      </c>
+      <c r="AB35" s="2" t="n">
+        <v>5.33402e-05</v>
+      </c>
+      <c r="AC35" s="2" t="n">
+        <v>4.29455e-05</v>
+      </c>
+      <c r="AD35" s="1" t="n">
+        <v>0.000178926</v>
+      </c>
+      <c r="AE35" s="2" t="n">
+        <v>5.42882e-05</v>
+      </c>
+      <c r="AF35" s="2" t="n">
+        <v>5.42988e-05</v>
+      </c>
+      <c r="AG35" s="2" t="n">
+        <v>5.42988e-05</v>
+      </c>
+      <c r="AH35" s="2" t="n">
+        <v>5.33402e-05</v>
+      </c>
+      <c r="AI35" s="2" t="n">
+        <v>6.528610000000001e-05</v>
+      </c>
+      <c r="AJ35" s="2" t="n">
+        <v>5.33402e-05</v>
+      </c>
+      <c r="AK35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="2" t="n">
+        <v>5.35813e-05</v>
+      </c>
+      <c r="AM35" s="2" t="n">
+        <v>5.35813e-05</v>
+      </c>
+      <c r="AN35" s="2" t="n">
+        <v>5.35813e-05</v>
+      </c>
+      <c r="AO35" s="2" t="n">
+        <v>2.82961e-08</v>
+      </c>
+      <c r="AP35" s="1" t="n">
+        <v>0.00105678</v>
+      </c>
+      <c r="AQ35" s="2" t="n">
+        <v>3.89255e-05</v>
+      </c>
+      <c r="AR35" s="2" t="n">
+        <v>3.31874e-05</v>
+      </c>
+      <c r="AS35" s="2" t="n">
+        <v>3.31874e-05</v>
+      </c>
+      <c r="AT35" s="2" t="n">
+        <v>3.31874e-05</v>
+      </c>
+      <c r="AU35" s="1" t="n">
+        <v>0.00731644</v>
+      </c>
+      <c r="AV35" s="2" t="n">
+        <v>8.747840000000001e-19</v>
+      </c>
+      <c r="AW35" s="2" t="n">
+        <v>8.747840000000001e-19</v>
+      </c>
+      <c r="AX35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB35" s="1" t="n">
+        <v>0.000383024</v>
+      </c>
+      <c r="BC35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE35" s="1" t="n">
+        <v>0.00211148</v>
+      </c>
+      <c r="BF35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG35" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH35" s="2" t="n">
+        <v>4.29455e-05</v>
+      </c>
+      <c r="BI35" s="2" t="n">
+        <v>4.29455e-05</v>
+      </c>
+      <c r="BJ35" s="2" t="n">
+        <v>4.29455e-05</v>
+      </c>
+      <c r="BK35" s="2" t="n">
+        <v>4.93436e-05</v>
+      </c>
+      <c r="BL35" s="2" t="n">
+        <v>5.01252e-05</v>
+      </c>
+      <c r="BM35" s="2" t="n">
+        <v>5.11425e-05</v>
+      </c>
+      <c r="BN35" s="2" t="n">
+        <v>5.38333e-05</v>
+      </c>
+      <c r="BO35" s="2" t="n">
+        <v>5.34523e-05</v>
+      </c>
+      <c r="BP35" s="2" t="n">
+        <v>5.38521e-05</v>
+      </c>
+      <c r="BQ35" s="2" t="n">
+        <v>5.42882e-05</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Mass Flows</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>kg/hr</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>51564000</v>
+      </c>
+      <c r="D36" s="2" t="n">
+        <v>51564000</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>1801530</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1801530</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>25000000</v>
+      </c>
+      <c r="I36" s="2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>10000000</v>
+      </c>
+      <c r="K36" s="1" t="n">
+        <v>925157</v>
+      </c>
+      <c r="L36" s="1" t="n">
+        <v>925157</v>
+      </c>
+      <c r="M36" s="1" t="n">
+        <v>504001</v>
+      </c>
+      <c r="N36" s="1" t="n">
+        <v>8341</v>
+      </c>
+      <c r="O36" s="1" t="n">
+        <v>8341</v>
+      </c>
+      <c r="P36" s="1" t="n">
+        <v>409529</v>
+      </c>
+      <c r="Q36" s="1" t="n">
+        <v>488306</v>
+      </c>
+      <c r="R36" s="1" t="n">
+        <v>518825</v>
+      </c>
+      <c r="S36" s="1" t="n">
+        <v>518825</v>
+      </c>
+      <c r="T36" s="1" t="n">
+        <v>674586</v>
+      </c>
+      <c r="U36" s="1" t="n">
+        <v>479600</v>
+      </c>
+      <c r="V36" s="1" t="n">
+        <v>504001</v>
+      </c>
+      <c r="W36" s="1" t="n">
+        <v>504001</v>
+      </c>
+      <c r="X36" s="1" t="n">
+        <v>1048.35</v>
+      </c>
+      <c r="Y36" s="1" t="n">
+        <v>502952</v>
+      </c>
+      <c r="Z36" s="1" t="n">
+        <v>502952</v>
+      </c>
+      <c r="AA36" s="2" t="n">
+        <v>1774590</v>
+      </c>
+      <c r="AB36" s="2" t="n">
+        <v>1774590</v>
+      </c>
+      <c r="AC36" s="2" t="n">
+        <v>2277540</v>
+      </c>
+      <c r="AD36" s="1" t="n">
+        <v>33352.9</v>
+      </c>
+      <c r="AE36" s="2" t="n">
+        <v>2277540</v>
+      </c>
+      <c r="AF36" s="2" t="n">
+        <v>2277570</v>
+      </c>
+      <c r="AG36" s="2" t="n">
+        <v>2277570</v>
+      </c>
+      <c r="AH36" s="2" t="n">
+        <v>1797970</v>
+      </c>
+      <c r="AI36" s="1" t="n">
+        <v>479600</v>
+      </c>
+      <c r="AJ36" s="1" t="n">
+        <v>23373.6</v>
+      </c>
+      <c r="AK36" s="1" t="n">
+        <v>36000</v>
+      </c>
+      <c r="AL36" s="1" t="n">
+        <v>22980.8</v>
+      </c>
+      <c r="AM36" s="1" t="n">
+        <v>22980.8</v>
+      </c>
+      <c r="AN36" s="1" t="n">
+        <v>22980.8</v>
+      </c>
+      <c r="AO36" s="1" t="n">
+        <v>36392.8</v>
+      </c>
+      <c r="AP36" s="1" t="n">
+        <v>10372.1</v>
+      </c>
+      <c r="AQ36" s="1" t="n">
+        <v>505620</v>
+      </c>
+      <c r="AR36" s="1" t="n">
+        <v>503679</v>
+      </c>
+      <c r="AS36" s="1" t="n">
+        <v>503679</v>
+      </c>
+      <c r="AT36" s="1" t="n">
+        <v>503679</v>
+      </c>
+      <c r="AU36" s="1" t="n">
+        <v>3256.52</v>
+      </c>
+      <c r="AV36" s="1" t="n">
+        <v>500423</v>
+      </c>
+      <c r="AW36" s="1" t="n">
+        <v>500423</v>
+      </c>
+      <c r="AX36" s="1" t="n">
+        <v>86893.7</v>
+      </c>
+      <c r="AY36" s="1" t="n">
+        <v>86893.7</v>
+      </c>
+      <c r="AZ36" s="1" t="n">
+        <v>4000</v>
+      </c>
+      <c r="BA36" s="1" t="n">
+        <v>409529</v>
+      </c>
+      <c r="BB36" s="1" t="n">
+        <v>36609.4</v>
+      </c>
+      <c r="BC36" s="1" t="n">
+        <v>87942.10000000001</v>
+      </c>
+      <c r="BD36" s="1" t="n">
+        <v>87942.10000000001</v>
+      </c>
+      <c r="BE36" s="1" t="n">
+        <v>1941.2</v>
+      </c>
+      <c r="BF36" s="1" t="n">
+        <v>674586</v>
+      </c>
+      <c r="BG36" s="1" t="n">
+        <v>674586</v>
+      </c>
+      <c r="BH36" s="2" t="n">
+        <v>1525950</v>
+      </c>
+      <c r="BI36" s="1" t="n">
+        <v>751590</v>
+      </c>
+      <c r="BJ36" s="1" t="n">
+        <v>751590</v>
+      </c>
+      <c r="BK36" s="2" t="n">
+        <v>1239900</v>
+      </c>
+      <c r="BL36" s="2" t="n">
+        <v>1758720</v>
+      </c>
+      <c r="BM36" s="2" t="n">
+        <v>2277540</v>
+      </c>
+      <c r="BN36" s="1" t="n">
+        <v>751590</v>
+      </c>
+      <c r="BO36" s="2" t="n">
+        <v>1239900</v>
+      </c>
+      <c r="BP36" s="2" t="n">
+        <v>1758720</v>
+      </c>
+      <c r="BQ36" s="2" t="n">
+        <v>2277540</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="BS1:CD1"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
 </file>